--- a/JD.L.xlsx
+++ b/JD.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8368B-9448-4E25-B19D-AF8C99BF59A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE0060-F843-4CC8-A421-FF11C6942E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A861BF2C-D46A-4677-B024-DD180144423A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A861BF2C-D46A-4677-B024-DD180144423A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>JD.L</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
   </si>
   <si>
     <t>Q124</t>
@@ -239,6 +227,48 @@
   <si>
     <t>Gross Profit</t>
   </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Outlook:</t>
+  </si>
+  <si>
+    <t>Q126: Group Growth around 3,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minorties </t>
+  </si>
+  <si>
+    <t>Net Income to Group</t>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +328,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,6 +339,8 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -645,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F36C36-D83F-4A49-8F05-A33A0CCD3C0A}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>0.83069999999999999</v>
+        <v>0.86919999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -677,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>5183.1000000000004</v>
+        <v>5158</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,7 +724,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>4305.6011699999999</v>
+        <v>4483.3335999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -703,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>946.3</v>
+        <v>731</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,11 +746,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>92.6+813</f>
-        <v>905.6</v>
+        <f>591+88</f>
+        <v>679</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,7 +759,17 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>4264.9011700000001</v>
+        <v>4431.3335999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -740,13 +782,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F946DB5-0B42-4F18-BA10-3ABCA98E0102}">
-  <dimension ref="A1:BJ256"/>
+  <dimension ref="A1:BJ258"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,21 +816,39 @@
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -807,8 +867,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="3">
+        <v>431</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>434</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -857,7 +921,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -876,8 +940,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="P4" s="3">
+        <v>537</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>638</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -926,7 +994,7 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -945,8 +1013,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="P5" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>339</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -995,7 +1067,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1014,8 +1086,12 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="P6" s="3">
+        <v>606</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>513</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1064,7 +1140,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1083,8 +1159,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="3">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>102</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1133,7 +1213,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1152,8 +1232,12 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="3">
+        <v>795</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2221</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1202,7 +1286,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1221,8 +1305,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="3">
+        <v>619</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>603</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1270,30 +1358,39 @@
       <c r="BJ9" s="3"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <f>+SUM(E3:E9)</f>
         <v>3317</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <f>+SUM(I3:I9)</f>
         <v>4506</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <f t="shared" ref="O10:P10" si="0">+SUM(O3:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>3317</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>+SUM(Q3:Q9)</f>
+        <v>4850</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1342,7 +1439,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1361,8 +1458,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>92</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1473,7 +1574,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1492,8 +1593,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3">
+        <v>3509</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3205</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1542,7 +1647,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1561,8 +1666,12 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3">
+        <v>3094</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3510</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1611,7 +1720,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1630,8 +1739,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3">
+        <v>3414</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4242</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1680,7 +1793,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1699,8 +1812,12 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="3">
+        <v>525</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>501</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1749,7 +1866,7 @@
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1768,8 +1885,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="3">
+        <v>7957</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>9081</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1818,7 +1939,7 @@
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1837,8 +1958,12 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="3">
+        <v>2350</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2251</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1887,7 +2012,7 @@
     </row>
     <row r="19" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1906,8 +2031,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="P19" s="3">
+        <v>235</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>126</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1956,7 +2085,7 @@
     </row>
     <row r="20" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1975,8 +2104,12 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="3">
+        <v>5920</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>6819</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2025,7 +2158,7 @@
     </row>
     <row r="21" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2044,8 +2177,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="P21" s="3">
+        <v>3408</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3550</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2094,7 +2231,7 @@
     </row>
     <row r="22" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2113,8 +2250,12 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="P22" s="3">
+        <v>670</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>702</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2163,7 +2304,7 @@
     </row>
     <row r="23" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2182,8 +2323,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="P23" s="3">
+        <v>544</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>387</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2232,30 +2377,30 @@
     </row>
     <row r="24" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:J24" si="0">+SUM(C17:C19)</f>
+        <f t="shared" ref="C24:H24" si="1">+SUM(C17:C19)</f>
         <v>0</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4783.9000000000005</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="6">
@@ -2263,17 +2408,21 @@
         <v>5032.2</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ref="J24" si="1">+SUM(J17:J19)</f>
+        <f t="shared" ref="J24" si="2">+SUM(J17:J19)</f>
         <v>0</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6">
+        <v>10542</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>11458</v>
+      </c>
+      <c r="R24" s="6"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -2321,7 +2470,7 @@
     </row>
     <row r="25" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2340,8 +2489,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="P25" s="3">
+        <v>5494</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>5995</v>
+      </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -2390,30 +2543,30 @@
     </row>
     <row r="26" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:H26" si="2">+C24-C25</f>
+        <f t="shared" ref="C26:H26" si="3">+C24-C25</f>
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2317.4000000000005</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="3">
@@ -2421,16 +2574,28 @@
         <v>2428</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26" si="3">+J24-J25</f>
+        <f t="shared" ref="J26" si="4">+J24-J25</f>
         <v>0</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="N26" s="3">
+        <f t="shared" ref="N26:P26" si="5">+N24-N25</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="5"/>
+        <v>5048</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>+Q24-Q25</f>
+        <v>5463</v>
+      </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -2479,7 +2644,7 @@
     </row>
     <row r="27" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2498,8 +2663,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="P27" s="3">
+        <v>3623</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3933</v>
+      </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -2548,7 +2717,7 @@
     </row>
     <row r="28" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2567,8 +2736,12 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="P28" s="3">
+        <v>536</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>657</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -2617,7 +2790,7 @@
     </row>
     <row r="29" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2636,8 +2809,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="P29" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>5</v>
+      </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -2686,7 +2863,7 @@
     </row>
     <row r="30" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2705,8 +2882,12 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="P30" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>25</v>
+      </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -2755,30 +2936,30 @@
     </row>
     <row r="31" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ref="C31" si="4">+C26-C27-C28+C29+C30</f>
+        <f t="shared" ref="C31" si="6">+C26-C27-C28+C29+C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" ref="D31" si="5">+D26-D27-D28+D29+D30</f>
+        <f t="shared" ref="D31" si="7">+D26-D27-D28+D29+D30</f>
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" ref="E31:H31" si="6">+E26-E27-E28+E29+E30</f>
+        <f t="shared" ref="E31:H31" si="8">+E26-E27-E28+E29+E30</f>
         <v>374.80000000000058</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I31" s="3">
@@ -2786,16 +2967,34 @@
         <v>292.20000000000005</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31" si="7">+J26-J27-J28+J29+J30</f>
+        <f t="shared" ref="J31:Q31" si="9">+J26-J27-J28+J29+J30</f>
         <v>0</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="L31" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="9"/>
+        <v>927</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="9"/>
+        <v>903</v>
+      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -2844,7 +3043,7 @@
     </row>
     <row r="32" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2863,8 +3062,12 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="P32" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>27</v>
+      </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -2913,7 +3116,7 @@
     </row>
     <row r="33" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2932,8 +3135,13 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="P33" s="3">
+        <f>96+59</f>
+        <v>155</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>215</v>
+      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -2982,30 +3190,30 @@
     </row>
     <row r="34" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:H34" si="8">+C31+C32-C33</f>
+        <f t="shared" ref="C34:H34" si="10">+C31+C32-C33</f>
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>353.70000000000061</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I34" s="3">
@@ -3013,16 +3221,34 @@
         <v>126.30000000000007</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34" si="9">+J31+J32-J33</f>
+        <f t="shared" ref="J34:Q34" si="11">+J31+J32-J33</f>
         <v>0</v>
       </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="L34" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="11"/>
+        <v>811</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="11"/>
+        <v>715</v>
+      </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3071,7 +3297,7 @@
     </row>
     <row r="35" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3090,8 +3316,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="P35" s="3">
+        <v>206</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>175</v>
+      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -3140,27 +3370,27 @@
     </row>
     <row r="36" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <f t="shared" ref="D36:H36" si="10">+D34-D35</f>
+        <f t="shared" ref="D36:H36" si="12">+D34-D35</f>
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>257.50000000000063</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I36" s="3">
@@ -3168,16 +3398,28 @@
         <v>52.200000000000074</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" ref="J36" si="11">+J34-J35</f>
+        <f t="shared" ref="J36" si="13">+J34-J35</f>
         <v>0</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="N36" s="3">
+        <f t="shared" ref="N36:P36" si="14">+N34-N35</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="14"/>
+        <v>605</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>+Q34-Q35</f>
+        <v>540</v>
+      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3225,6 +3467,9 @@
       <c r="BJ36" s="3"/>
     </row>
     <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3238,8 +3483,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="P37" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>50</v>
+      </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -3288,7 +3537,7 @@
     </row>
     <row r="38" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3300,11 +3549,26 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="M38" s="3">
+        <f t="shared" ref="M38:P38" si="15">+M36-M37</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="15"/>
+        <v>539</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>+Q36-Q37</f>
+        <v>490</v>
+      </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3352,9 +3616,6 @@
       <c r="BJ38" s="3"/>
     </row>
     <row r="39" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3417,6 +3678,9 @@
       <c r="BJ39" s="3"/>
     </row>
     <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3426,12 +3690,30 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="L40" s="2" t="e">
+        <f t="shared" ref="L40:P40" si="16">+L38/L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="16"/>
+        <v>0.10449786739046142</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>+Q38/Q41</f>
+        <v>9.4961240310077522E-2</v>
+      </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3480,7 +3762,7 @@
     </row>
     <row r="41" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3488,18 +3770,19 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="7">
-        <f>+I10/E10-1</f>
-        <v>0.35845643653904125</v>
-      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="P41" s="3">
+        <v>5158</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>5160</v>
+      </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -3547,19 +3830,13 @@
       <c r="BJ41" s="3"/>
     </row>
     <row r="42" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="7">
-        <f>+I13/E13-1</f>
-        <v>-1.7825545579657986E-2</v>
-      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3616,7 +3893,7 @@
     </row>
     <row r="43" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3625,17 +3902,26 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
-        <f t="shared" ref="I43:I53" si="12">+I14/E14-1</f>
-        <v>4.3927125506072917E-2</v>
+        <f>+I10/E10-1</f>
+        <v>0.35845643653904125</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="O43" s="7" t="e">
+        <f t="shared" ref="O43:Q43" si="17">+O10/N10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="7">
+        <f>+Q10/P10-1</f>
+        <v>0.46216460657220382</v>
+      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -3684,7 +3970,7 @@
     </row>
     <row r="44" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3693,17 +3979,26 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
-        <f t="shared" si="12"/>
-        <v>0.15351223362273081</v>
+        <f>+I13/E13-1</f>
+        <v>-1.7825545579657986E-2</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="O44" s="9" t="e">
+        <f t="shared" ref="O44:Q54" si="18">+O13/N13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="18"/>
+        <v>-8.6634368766030256E-2</v>
+      </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -3752,7 +4047,7 @@
     </row>
     <row r="45" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3761,17 +4056,26 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
-        <f t="shared" si="12"/>
-        <v>-8.9984350547730796E-2</v>
+        <f t="shared" ref="I45:I55" si="19">+I14/E14-1</f>
+        <v>4.3927125506072917E-2</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="O45" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="18"/>
+        <v>0.13445378151260501</v>
+      </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
@@ -3820,7 +4124,7 @@
     </row>
     <row r="46" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3829,17 +4133,26 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
-        <f t="shared" si="12"/>
-        <v>9.2830293749129877E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.15351223362273081</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="O46" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="18"/>
+        <v>0.24253075571177507</v>
+      </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -3888,7 +4201,7 @@
     </row>
     <row r="47" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3897,17 +4210,26 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.4911287278218111E-2</v>
+        <f t="shared" si="19"/>
+        <v>-8.9984350547730796E-2</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="O47" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="18"/>
+        <v>-4.5714285714285707E-2</v>
+      </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
@@ -3956,7 +4278,7 @@
     </row>
     <row r="48" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3965,17 +4287,26 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.52183734939759041</v>
+        <f t="shared" si="19"/>
+        <v>9.2830293749129877E-2</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="O48" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="18"/>
+        <v>0.14125926856855608</v>
+      </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4024,7 +4355,7 @@
     </row>
     <row r="49" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4033,17 +4364,26 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="7">
-        <f t="shared" si="12"/>
-        <v>9.6468530194248947E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.4911287278218111E-2</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="O49" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="18"/>
+        <v>-4.2127659574468068E-2</v>
+      </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
@@ -4092,7 +4432,7 @@
     </row>
     <row r="50" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4101,17 +4441,26 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="7">
-        <f t="shared" si="12"/>
-        <v>7.4486646087772446E-3</v>
+        <f t="shared" si="19"/>
+        <v>-0.52183734939759041</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="O50" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="18"/>
+        <v>-0.46382978723404256</v>
+      </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4160,7 +4509,7 @@
     </row>
     <row r="51" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4169,17 +4518,26 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.1040481766476984E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.6468530194248947E-2</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="O51" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15185810810810807</v>
+      </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4228,7 +4586,7 @@
     </row>
     <row r="52" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4237,17 +4595,26 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="7">
-        <f t="shared" si="12"/>
-        <v>-9.6452770027899648E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.4486646087772446E-3</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="O52" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="18"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4296,7 +4663,7 @@
     </row>
     <row r="53" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4305,17 +4672,26 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="7">
-        <f t="shared" si="12"/>
-        <v>5.1903258847383782E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.1040481766476984E-2</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="O53" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P53" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="18"/>
+        <v>4.7761194029850795E-2</v>
+      </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
@@ -4364,47 +4740,35 @@
     </row>
     <row r="54" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="7" t="e">
-        <f t="shared" ref="C54:I54" si="13">+C26/C24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E54" s="7">
-        <f t="shared" si="13"/>
-        <v>0.48441648027759782</v>
-      </c>
-      <c r="F54" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="7">
-        <f>+I26/I24</f>
-        <v>0.48249274671118003</v>
-      </c>
-      <c r="J54" s="7" t="e">
-        <f t="shared" ref="J54" si="14">+J26/J24</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>-9.6452770027899648E-2</v>
+      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="O54" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="18"/>
+        <v>-0.28860294117647056</v>
+      </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -4452,61 +4816,55 @@
       <c r="BJ54" s="3"/>
     </row>
     <row r="55" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="7" t="e">
-        <f t="shared" ref="C55:I55" si="15">+C31/C24</f>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="8">
+        <f t="shared" si="19"/>
+        <v>5.1903258847383782E-2</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="8" t="e">
+        <f t="shared" ref="M55:Q55" si="20">+M24/L24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D55" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="N55" s="8" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="7">
-        <f t="shared" si="15"/>
-        <v>7.8346119275068571E-2</v>
-      </c>
-      <c r="F55" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="O55" s="8" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="P55" s="8" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="7">
-        <f>+I31/I24</f>
-        <v>5.8066054608322412E-2</v>
-      </c>
-      <c r="J55" s="7" t="e">
-        <f t="shared" ref="J55" si="16">+J31/J24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
+      <c r="Q55" s="8">
+        <f>+Q24/P24-1</f>
+        <v>8.6890533105672629E-2</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
@@ -4542,47 +4900,65 @@
     </row>
     <row r="56" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C56" s="7" t="e">
-        <f t="shared" ref="C56:I56" si="17">+C35/C34</f>
+        <f t="shared" ref="C56:H56" si="21">+C26/C24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D56" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="17"/>
-        <v>0.27198190556969137</v>
+        <f t="shared" si="21"/>
+        <v>0.48441648027759782</v>
       </c>
       <c r="F56" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="7">
-        <f>+I35/I34</f>
-        <v>0.58669833729216114</v>
+        <f>+I26/I24</f>
+        <v>0.48249274671118003</v>
       </c>
       <c r="J56" s="7" t="e">
-        <f t="shared" ref="J56" si="18">+J35/J34</f>
+        <f t="shared" ref="J56" si="22">+J26/J24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="L56" s="7" t="e">
+        <f t="shared" ref="L56:Q56" si="23">+L26/L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="7" t="e">
+        <f t="shared" ref="O56:Q56" si="24">+O26/O24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P56" s="7">
+        <f t="shared" si="24"/>
+        <v>0.47884651868715616</v>
+      </c>
+      <c r="Q56" s="7">
+        <f t="shared" si="23"/>
+        <v>0.47678477919357654</v>
+      </c>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -4630,21 +5006,66 @@
       <c r="BJ56" s="3"/>
     </row>
     <row r="57" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="7" t="e">
+        <f t="shared" ref="C57:H57" si="25">+C31/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="25"/>
+        <v>7.8346119275068571E-2</v>
+      </c>
+      <c r="F57" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="7">
+        <f>+I31/I24</f>
+        <v>5.8066054608322412E-2</v>
+      </c>
+      <c r="J57" s="7" t="e">
+        <f t="shared" ref="J57" si="26">+J31/J24</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="L57" s="7" t="e">
+        <f t="shared" ref="L57:Q57" si="27">+L31/L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="7" t="e">
+        <f t="shared" ref="O57:Q57" si="28">+O31/O24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" s="7">
+        <f t="shared" si="28"/>
+        <v>8.7933978372225385E-2</v>
+      </c>
+      <c r="Q57" s="7">
+        <f t="shared" si="27"/>
+        <v>7.880956536917437E-2</v>
+      </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -4692,21 +5113,66 @@
       <c r="BJ57" s="3"/>
     </row>
     <row r="58" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="7" t="e">
+        <f t="shared" ref="C58:H58" si="29">+C35/C34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="7" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="29"/>
+        <v>0.27198190556969137</v>
+      </c>
+      <c r="F58" s="7" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="7" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="7" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" s="7">
+        <f>+I35/I34</f>
+        <v>0.58669833729216114</v>
+      </c>
+      <c r="J58" s="7" t="e">
+        <f t="shared" ref="J58" si="30">+J35/J34</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="L58" s="7" t="e">
+        <f t="shared" ref="L58:Q58" si="31">+L35/L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="7" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="7" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="7" t="e">
+        <f t="shared" ref="O58:Q58" si="32">+O35/O34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P58" s="7">
+        <f t="shared" si="32"/>
+        <v>0.25400739827373614</v>
+      </c>
+      <c r="Q58" s="7">
+        <f t="shared" si="31"/>
+        <v>0.24475524475524477</v>
+      </c>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -17029,6 +17495,130 @@
       <c r="BI256" s="3"/>
       <c r="BJ256" s="3"/>
     </row>
+    <row r="257" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="3"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
+      <c r="V257" s="3"/>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
+      <c r="Y257" s="3"/>
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="3"/>
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+      <c r="AD257" s="3"/>
+      <c r="AE257" s="3"/>
+      <c r="AF257" s="3"/>
+      <c r="AG257" s="3"/>
+      <c r="AH257" s="3"/>
+      <c r="AI257" s="3"/>
+      <c r="AJ257" s="3"/>
+      <c r="AK257" s="3"/>
+      <c r="AL257" s="3"/>
+      <c r="AM257" s="3"/>
+      <c r="AN257" s="3"/>
+      <c r="AO257" s="3"/>
+      <c r="AP257" s="3"/>
+      <c r="AQ257" s="3"/>
+      <c r="AR257" s="3"/>
+      <c r="AS257" s="3"/>
+      <c r="AT257" s="3"/>
+      <c r="AU257" s="3"/>
+      <c r="AV257" s="3"/>
+      <c r="AW257" s="3"/>
+      <c r="AX257" s="3"/>
+      <c r="AY257" s="3"/>
+      <c r="AZ257" s="3"/>
+      <c r="BA257" s="3"/>
+      <c r="BB257" s="3"/>
+      <c r="BC257" s="3"/>
+      <c r="BD257" s="3"/>
+      <c r="BE257" s="3"/>
+      <c r="BF257" s="3"/>
+      <c r="BG257" s="3"/>
+      <c r="BH257" s="3"/>
+      <c r="BI257" s="3"/>
+      <c r="BJ257" s="3"/>
+    </row>
+    <row r="258" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
+      <c r="S258" s="3"/>
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3"/>
+      <c r="Y258" s="3"/>
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="3"/>
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+      <c r="AD258" s="3"/>
+      <c r="AE258" s="3"/>
+      <c r="AF258" s="3"/>
+      <c r="AG258" s="3"/>
+      <c r="AH258" s="3"/>
+      <c r="AI258" s="3"/>
+      <c r="AJ258" s="3"/>
+      <c r="AK258" s="3"/>
+      <c r="AL258" s="3"/>
+      <c r="AM258" s="3"/>
+      <c r="AN258" s="3"/>
+      <c r="AO258" s="3"/>
+      <c r="AP258" s="3"/>
+      <c r="AQ258" s="3"/>
+      <c r="AR258" s="3"/>
+      <c r="AS258" s="3"/>
+      <c r="AT258" s="3"/>
+      <c r="AU258" s="3"/>
+      <c r="AV258" s="3"/>
+      <c r="AW258" s="3"/>
+      <c r="AX258" s="3"/>
+      <c r="AY258" s="3"/>
+      <c r="AZ258" s="3"/>
+      <c r="BA258" s="3"/>
+      <c r="BB258" s="3"/>
+      <c r="BC258" s="3"/>
+      <c r="BD258" s="3"/>
+      <c r="BE258" s="3"/>
+      <c r="BF258" s="3"/>
+      <c r="BG258" s="3"/>
+      <c r="BH258" s="3"/>
+      <c r="BI258" s="3"/>
+      <c r="BJ258" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B5630C99-7186-4128-81BB-01C815AA4E2E}"/>

--- a/JD.L.xlsx
+++ b/JD.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE0060-F843-4CC8-A421-FF11C6942E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B57BDA-B243-462B-8384-C4332616C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A861BF2C-D46A-4677-B024-DD180144423A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A861BF2C-D46A-4677-B024-DD180144423A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>JD.L</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>Net Income to Group</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
@@ -679,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F36C36-D83F-4A49-8F05-A33A0CCD3C0A}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -782,13 +794,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F946DB5-0B42-4F18-BA10-3ABCA98E0102}">
-  <dimension ref="A1:BJ258"/>
+  <dimension ref="A1:BN258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,12 +809,12 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
@@ -827,26 +839,38 @@
       <c r="J2" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="L2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -867,16 +891,16 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>431</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>434</v>
-      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="T3" s="3">
+        <v>431</v>
+      </c>
+      <c r="U3" s="3">
+        <v>434</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -918,8 +942,12 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -940,16 +968,16 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>537</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>638</v>
-      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="T4" s="3">
+        <v>537</v>
+      </c>
+      <c r="U4" s="3">
+        <v>638</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -991,8 +1019,12 @@
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1013,16 +1045,16 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>339</v>
-      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="T5" s="3">
+        <v>240</v>
+      </c>
+      <c r="U5" s="3">
+        <v>339</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1064,8 +1096,12 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1086,16 +1122,16 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>606</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>513</v>
-      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="T6" s="3">
+        <v>606</v>
+      </c>
+      <c r="U6" s="3">
+        <v>513</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1137,8 +1173,12 @@
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1159,16 +1199,16 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>102</v>
-      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="T7" s="3">
+        <v>89</v>
+      </c>
+      <c r="U7" s="3">
+        <v>102</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1210,8 +1250,12 @@
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1232,16 +1276,16 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>795</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2221</v>
-      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="T8" s="3">
+        <v>795</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2221</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1283,8 +1327,12 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1305,16 +1353,16 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>619</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>603</v>
-      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="T9" s="3">
+        <v>619</v>
+      </c>
+      <c r="U9" s="3">
+        <v>603</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1356,8 +1404,12 @@
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
       <c r="BJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1379,22 +1431,22 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6">
-        <f t="shared" ref="O10:P10" si="0">+SUM(O3:O9)</f>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <f t="shared" ref="S10:T10" si="0">+SUM(S3:S9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="6">
+      <c r="T10" s="6">
         <f t="shared" si="0"/>
         <v>3317</v>
       </c>
-      <c r="Q10" s="6">
-        <f>+SUM(Q3:Q9)</f>
+      <c r="U10" s="6">
+        <f>+SUM(U3:U9)</f>
         <v>4850</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1436,8 +1488,12 @@
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1458,16 +1514,16 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>92</v>
-      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="T11" s="3">
+        <v>85</v>
+      </c>
+      <c r="U11" s="3">
+        <v>92</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1509,8 +1565,12 @@
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1571,8 +1631,12 @@
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1593,16 +1657,16 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3">
-        <v>3509</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>3205</v>
-      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="T13" s="3">
+        <v>3509</v>
+      </c>
+      <c r="U13" s="3">
+        <v>3205</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1644,8 +1708,12 @@
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1666,16 +1734,16 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3">
-        <v>3094</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>3510</v>
-      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="T14" s="3">
+        <v>3094</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3510</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1717,8 +1785,12 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1739,16 +1811,16 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3">
-        <v>3414</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4242</v>
-      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="T15" s="3">
+        <v>3414</v>
+      </c>
+      <c r="U15" s="3">
+        <v>4242</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -1790,8 +1862,12 @@
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1812,16 +1888,16 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3">
-        <v>525</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>501</v>
-      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="T16" s="3">
+        <v>525</v>
+      </c>
+      <c r="U16" s="3">
+        <v>501</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1863,8 +1939,12 @@
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
-    </row>
-    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+    </row>
+    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -1885,16 +1965,16 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3">
-        <v>7957</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>9081</v>
-      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="T17" s="3">
+        <v>7957</v>
+      </c>
+      <c r="U17" s="3">
+        <v>9081</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1936,8 +2016,12 @@
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
-    </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+    </row>
+    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1958,16 +2042,16 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3">
-        <v>2350</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2251</v>
-      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="T18" s="3">
+        <v>2350</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2251</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2009,8 +2093,12 @@
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
-    </row>
-    <row r="19" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+    </row>
+    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -2031,16 +2119,16 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3">
-        <v>235</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>126</v>
-      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="T19" s="3">
+        <v>235</v>
+      </c>
+      <c r="U19" s="3">
+        <v>126</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2082,8 +2170,12 @@
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
-    </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+    </row>
+    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -2104,16 +2196,16 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3">
-        <v>5920</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>6819</v>
-      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="T20" s="3">
+        <v>5920</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6819</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2155,8 +2247,12 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
-    </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+    </row>
+    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -2177,16 +2273,16 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3">
-        <v>3408</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>3550</v>
-      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="T21" s="3">
+        <v>3408</v>
+      </c>
+      <c r="U21" s="3">
+        <v>3550</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2228,8 +2324,12 @@
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
-    </row>
-    <row r="22" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+    </row>
+    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -2250,16 +2350,16 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3">
-        <v>670</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>702</v>
-      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="T22" s="3">
+        <v>670</v>
+      </c>
+      <c r="U22" s="3">
+        <v>702</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2301,8 +2401,12 @@
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
-    </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+    </row>
+    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -2323,16 +2427,16 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3">
-        <v>544</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>387</v>
-      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="T23" s="3">
+        <v>544</v>
+      </c>
+      <c r="U23" s="3">
+        <v>387</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -2374,8 +2478,12 @@
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
       <c r="BJ23" s="3"/>
-    </row>
-    <row r="24" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+    </row>
+    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2416,17 +2524,17 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6">
         <v>10542</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="U24" s="6">
         <v>11458</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -2467,8 +2575,12 @@
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
-    </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+    </row>
+    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -2489,16 +2601,16 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <v>5494</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>5995</v>
-      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="T25" s="3">
+        <v>5494</v>
+      </c>
+      <c r="U25" s="3">
+        <v>5995</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -2540,8 +2652,12 @@
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
-    </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+    </row>
+    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>62</v>
       </c>
@@ -2580,26 +2696,26 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3">
-        <f t="shared" ref="N26:P26" si="5">+N24-N25</f>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
+        <f t="shared" ref="R26:T26" si="5">+R24-R25</f>
         <v>0</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <f t="shared" si="5"/>
         <v>5048</v>
       </c>
-      <c r="Q26" s="3">
-        <f>+Q24-Q25</f>
+      <c r="U26" s="3">
+        <f>+U24-U25</f>
         <v>5463</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -2641,8 +2757,12 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
-    </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+    </row>
+    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -2663,16 +2783,16 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3">
-        <v>3623</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>3933</v>
-      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="T27" s="3">
+        <v>3623</v>
+      </c>
+      <c r="U27" s="3">
+        <v>3933</v>
+      </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -2714,8 +2834,12 @@
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
-    </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+    </row>
+    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -2736,16 +2860,16 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3">
-        <v>536</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>657</v>
-      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="T28" s="3">
+        <v>536</v>
+      </c>
+      <c r="U28" s="3">
+        <v>657</v>
+      </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -2787,8 +2911,12 @@
       <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
-    </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+    </row>
+    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -2809,16 +2937,16 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>5</v>
-      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="T29" s="3">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>5</v>
+      </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -2860,8 +2988,12 @@
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
-    </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+    </row>
+    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -2882,16 +3014,16 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>25</v>
-      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="T30" s="3">
+        <v>30</v>
+      </c>
+      <c r="U30" s="3">
+        <v>25</v>
+      </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -2933,8 +3065,12 @@
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
-    </row>
-    <row r="31" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+    </row>
+    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -2967,38 +3103,38 @@
         <v>292.20000000000005</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:Q31" si="9">+J26-J27-J28+J29+J30</f>
+        <f t="shared" ref="J31:U31" si="9">+J26-J27-J28+J29+J30</f>
         <v>0</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M31" s="3">
+      <c r="Q31" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N31" s="3">
+      <c r="R31" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O31" s="3">
+      <c r="S31" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P31" s="3">
+      <c r="T31" s="3">
         <f t="shared" si="9"/>
         <v>927</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="U31" s="3">
         <f t="shared" si="9"/>
         <v>903</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -3040,8 +3176,12 @@
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
-    </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+    </row>
+    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -3062,16 +3202,16 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>27</v>
-      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="T32" s="3">
+        <v>39</v>
+      </c>
+      <c r="U32" s="3">
+        <v>27</v>
+      </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -3113,8 +3253,12 @@
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
-    </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+    </row>
+    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -3135,17 +3279,17 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3">
         <f>96+59</f>
         <v>155</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>215</v>
       </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -3187,8 +3331,12 @@
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
-    </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+    </row>
+    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -3221,38 +3369,38 @@
         <v>126.30000000000007</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:Q34" si="11">+J31+J32-J33</f>
+        <f t="shared" ref="J34:U34" si="11">+J31+J32-J33</f>
         <v>0</v>
       </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M34" s="3">
+      <c r="Q34" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N34" s="3">
+      <c r="R34" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O34" s="3">
+      <c r="S34" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P34" s="3">
+      <c r="T34" s="3">
         <f t="shared" si="11"/>
         <v>811</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="U34" s="3">
         <f t="shared" si="11"/>
         <v>715</v>
       </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -3294,8 +3442,12 @@
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
-    </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+    </row>
+    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -3316,16 +3468,16 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3">
-        <v>206</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>175</v>
-      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="T35" s="3">
+        <v>206</v>
+      </c>
+      <c r="U35" s="3">
+        <v>175</v>
+      </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -3367,8 +3519,12 @@
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
-    </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+    </row>
+    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>45</v>
       </c>
@@ -3404,26 +3560,26 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3">
-        <f t="shared" ref="N36:P36" si="14">+N34-N35</f>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <f t="shared" ref="R36:T36" si="14">+R34-R35</f>
         <v>0</v>
       </c>
-      <c r="O36" s="3">
+      <c r="S36" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P36" s="3">
+      <c r="T36" s="3">
         <f t="shared" si="14"/>
         <v>605</v>
       </c>
-      <c r="Q36" s="3">
-        <f>+Q34-Q35</f>
+      <c r="U36" s="3">
+        <f>+U34-U35</f>
         <v>540</v>
       </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -3465,8 +3621,12 @@
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
-    </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+    </row>
+    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>75</v>
       </c>
@@ -3483,16 +3643,16 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3">
-        <v>66</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>50</v>
-      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="T37" s="3">
+        <v>66</v>
+      </c>
+      <c r="U37" s="3">
+        <v>50</v>
+      </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -3534,8 +3694,12 @@
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
-    </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+    </row>
+    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>76</v>
       </c>
@@ -3549,30 +3713,30 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3">
-        <f t="shared" ref="M38:P38" si="15">+M36-M37</f>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3">
+        <f t="shared" ref="Q38:T38" si="15">+Q36-Q37</f>
         <v>0</v>
       </c>
-      <c r="N38" s="3">
+      <c r="R38" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O38" s="3">
+      <c r="S38" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P38" s="3">
+      <c r="T38" s="3">
         <f t="shared" si="15"/>
         <v>539</v>
       </c>
-      <c r="Q38" s="3">
-        <f>+Q36-Q37</f>
+      <c r="U38" s="3">
+        <f>+U36-U37</f>
         <v>490</v>
       </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -3614,8 +3778,12 @@
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
-    </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+    </row>
+    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3676,8 +3844,12 @@
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
       <c r="BJ39" s="3"/>
-    </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+    </row>
+    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -3690,34 +3862,34 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="2" t="e">
-        <f t="shared" ref="L40:P40" si="16">+L38/L41</f>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="2" t="e">
+        <f t="shared" ref="P40:T40" si="16">+P38/P41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="Q40" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="2" t="e">
+      <c r="R40" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="2" t="e">
+      <c r="S40" s="2" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="2">
+      <c r="T40" s="2">
         <f t="shared" si="16"/>
         <v>0.10449786739046142</v>
       </c>
-      <c r="Q40" s="2">
-        <f>+Q38/Q41</f>
+      <c r="U40" s="2">
+        <f>+U38/U41</f>
         <v>9.4961240310077522E-2</v>
       </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -3759,8 +3931,12 @@
       <c r="BH40" s="3"/>
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
-    </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+    </row>
+    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -3777,16 +3953,16 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3">
-        <v>5158</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>5160</v>
-      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="T41" s="3">
+        <v>5158</v>
+      </c>
+      <c r="U41" s="3">
+        <v>5160</v>
+      </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -3828,8 +4004,12 @@
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3"/>
-    </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+    </row>
+    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3890,8 +4070,12 @@
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
-    </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+    </row>
+    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -3910,22 +4094,22 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="7" t="e">
-        <f t="shared" ref="O43:Q43" si="17">+O10/N10-1</f>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="7" t="e">
+        <f t="shared" ref="S43:T43" si="17">+S10/R10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="7" t="e">
+      <c r="T43" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q43" s="7">
-        <f>+Q10/P10-1</f>
+      <c r="U43" s="7">
+        <f>+U10/T10-1</f>
         <v>0.46216460657220382</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -3967,8 +4151,12 @@
       <c r="BH43" s="3"/>
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
-    </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+    </row>
+    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -3987,22 +4175,22 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="9" t="e">
-        <f t="shared" ref="O44:Q54" si="18">+O13/N13-1</f>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="9" t="e">
+        <f t="shared" ref="S44:U54" si="18">+S13/R13-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="9" t="e">
+      <c r="T44" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="U44" s="9">
         <f t="shared" si="18"/>
         <v>-8.6634368766030256E-2</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -4044,8 +4232,12 @@
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
       <c r="BJ44" s="3"/>
-    </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="3"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
+    </row>
+    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -4064,22 +4256,22 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="9" t="e">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="9" t="e">
+      <c r="T45" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="U45" s="9">
         <f t="shared" si="18"/>
         <v>0.13445378151260501</v>
       </c>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -4121,8 +4313,12 @@
       <c r="BH45" s="3"/>
       <c r="BI45" s="3"/>
       <c r="BJ45" s="3"/>
-    </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
+    </row>
+    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -4141,22 +4337,22 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="9" t="e">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P46" s="9" t="e">
+      <c r="T46" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="U46" s="9">
         <f t="shared" si="18"/>
         <v>0.24253075571177507</v>
       </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -4198,8 +4394,12 @@
       <c r="BH46" s="3"/>
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
-    </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK46" s="3"/>
+      <c r="BL46" s="3"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+    </row>
+    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -4218,22 +4418,22 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="9" t="e">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P47" s="9" t="e">
+      <c r="T47" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="U47" s="9">
         <f t="shared" si="18"/>
         <v>-4.5714285714285707E-2</v>
       </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -4275,8 +4475,12 @@
       <c r="BH47" s="3"/>
       <c r="BI47" s="3"/>
       <c r="BJ47" s="3"/>
-    </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+    </row>
+    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -4295,22 +4499,22 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="9" t="e">
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="9" t="e">
+      <c r="T48" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="U48" s="9">
         <f t="shared" si="18"/>
         <v>0.14125926856855608</v>
       </c>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -4352,8 +4556,12 @@
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
       <c r="BJ48" s="3"/>
-    </row>
-    <row r="49" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+    </row>
+    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -4372,22 +4580,22 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="9" t="e">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="9" t="e">
+      <c r="T49" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="U49" s="9">
         <f t="shared" si="18"/>
         <v>-4.2127659574468068E-2</v>
       </c>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
@@ -4429,8 +4637,12 @@
       <c r="BH49" s="3"/>
       <c r="BI49" s="3"/>
       <c r="BJ49" s="3"/>
-    </row>
-    <row r="50" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+    </row>
+    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -4449,22 +4661,22 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="9" t="e">
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="9" t="e">
+      <c r="T50" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="U50" s="9">
         <f t="shared" si="18"/>
         <v>-0.46382978723404256</v>
       </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -4506,8 +4718,12 @@
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3"/>
-    </row>
-    <row r="51" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+    </row>
+    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -4526,22 +4742,22 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="9" t="e">
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P51" s="9" t="e">
+      <c r="T51" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="U51" s="9">
         <f t="shared" si="18"/>
         <v>0.15185810810810807</v>
       </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -4583,8 +4799,12 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
-    </row>
-    <row r="52" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="3"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
+    </row>
+    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -4603,22 +4823,22 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="9" t="e">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P52" s="9" t="e">
+      <c r="T52" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="U52" s="9">
         <f t="shared" si="18"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -4660,8 +4880,12 @@
       <c r="BH52" s="3"/>
       <c r="BI52" s="3"/>
       <c r="BJ52" s="3"/>
-    </row>
-    <row r="53" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="3"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
+    </row>
+    <row r="53" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -4680,22 +4904,22 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="9" t="e">
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P53" s="9" t="e">
+      <c r="T53" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="U53" s="9">
         <f t="shared" si="18"/>
         <v>4.7761194029850795E-2</v>
       </c>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -4737,8 +4961,12 @@
       <c r="BH53" s="3"/>
       <c r="BI53" s="3"/>
       <c r="BJ53" s="3"/>
-    </row>
-    <row r="54" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="3"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
+    </row>
+    <row r="54" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>53</v>
       </c>
@@ -4757,22 +4985,22 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="9" t="e">
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P54" s="9" t="e">
+      <c r="T54" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="U54" s="9">
         <f t="shared" si="18"/>
         <v>-0.28860294117647056</v>
       </c>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -4814,8 +5042,12 @@
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
       <c r="BJ54" s="3"/>
-    </row>
-    <row r="55" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="3"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
+    </row>
+    <row r="55" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
@@ -4832,30 +5064,30 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="8" t="e">
-        <f t="shared" ref="M55:Q55" si="20">+M24/L24-1</f>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="8" t="e">
+        <f t="shared" ref="Q55:T55" si="20">+Q24/P24-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N55" s="8" t="e">
+      <c r="R55" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O55" s="8" t="e">
+      <c r="S55" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P55" s="8" t="e">
+      <c r="T55" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q55" s="8">
-        <f>+Q24/P24-1</f>
+      <c r="U55" s="8">
+        <f>+U24/T24-1</f>
         <v>8.6890533105672629E-2</v>
       </c>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
@@ -4865,10 +5097,10 @@
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-      <c r="AH55" s="3"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
@@ -4897,8 +5129,12 @@
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
       <c r="BJ55" s="3"/>
-    </row>
-    <row r="56" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="3"/>
+      <c r="BM55" s="3"/>
+      <c r="BN55" s="3"/>
+    </row>
+    <row r="56" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -4934,35 +5170,35 @@
         <f t="shared" ref="J56" si="22">+J26/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="7" t="e">
-        <f t="shared" ref="L56:Q56" si="23">+L26/L24</f>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="7" t="e">
+        <f t="shared" ref="P56:U56" si="23">+P26/P24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="7" t="e">
+      <c r="Q56" s="7" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="7" t="e">
+      <c r="R56" s="7" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O56" s="7" t="e">
-        <f t="shared" ref="O56:Q56" si="24">+O26/O24</f>
+      <c r="S56" s="7" t="e">
+        <f t="shared" ref="S56:T56" si="24">+S26/S24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P56" s="7">
+      <c r="T56" s="7">
         <f t="shared" si="24"/>
         <v>0.47884651868715616</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="U56" s="7">
         <f t="shared" si="23"/>
         <v>0.47678477919357654</v>
       </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -5004,8 +5240,12 @@
       <c r="BH56" s="3"/>
       <c r="BI56" s="3"/>
       <c r="BJ56" s="3"/>
-    </row>
-    <row r="57" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="3"/>
+      <c r="BM56" s="3"/>
+      <c r="BN56" s="3"/>
+    </row>
+    <row r="57" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5041,35 +5281,35 @@
         <f t="shared" ref="J57" si="26">+J31/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="7" t="e">
-        <f t="shared" ref="L57:Q57" si="27">+L31/L24</f>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="7" t="e">
+        <f t="shared" ref="P57:U57" si="27">+P31/P24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="7" t="e">
+      <c r="Q57" s="7" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="7" t="e">
+      <c r="R57" s="7" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O57" s="7" t="e">
-        <f t="shared" ref="O57:Q57" si="28">+O31/O24</f>
+      <c r="S57" s="7" t="e">
+        <f t="shared" ref="S57:T57" si="28">+S31/S24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P57" s="7">
+      <c r="T57" s="7">
         <f t="shared" si="28"/>
         <v>8.7933978372225385E-2</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="U57" s="7">
         <f t="shared" si="27"/>
         <v>7.880956536917437E-2</v>
       </c>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -5111,8 +5351,12 @@
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
-    </row>
-    <row r="58" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="3"/>
+      <c r="BM57" s="3"/>
+      <c r="BN57" s="3"/>
+    </row>
+    <row r="58" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -5148,35 +5392,35 @@
         <f t="shared" ref="J58" si="30">+J35/J34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="7" t="e">
-        <f t="shared" ref="L58:Q58" si="31">+L35/L34</f>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="7" t="e">
+        <f t="shared" ref="P58:U58" si="31">+P35/P34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="7" t="e">
+      <c r="Q58" s="7" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N58" s="7" t="e">
+      <c r="R58" s="7" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O58" s="7" t="e">
-        <f t="shared" ref="O58:Q58" si="32">+O35/O34</f>
+      <c r="S58" s="7" t="e">
+        <f t="shared" ref="S58:T58" si="32">+S35/S34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P58" s="7">
+      <c r="T58" s="7">
         <f t="shared" si="32"/>
         <v>0.25400739827373614</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="U58" s="7">
         <f t="shared" si="31"/>
         <v>0.24475524475524477</v>
       </c>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
@@ -5218,8 +5462,12 @@
       <c r="BH58" s="3"/>
       <c r="BI58" s="3"/>
       <c r="BJ58" s="3"/>
-    </row>
-    <row r="59" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK58" s="3"/>
+      <c r="BL58" s="3"/>
+      <c r="BM58" s="3"/>
+      <c r="BN58" s="3"/>
+    </row>
+    <row r="59" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5280,8 +5528,12 @@
       <c r="BH59" s="3"/>
       <c r="BI59" s="3"/>
       <c r="BJ59" s="3"/>
-    </row>
-    <row r="60" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="3"/>
+      <c r="BM59" s="3"/>
+      <c r="BN59" s="3"/>
+    </row>
+    <row r="60" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5342,8 +5594,12 @@
       <c r="BH60" s="3"/>
       <c r="BI60" s="3"/>
       <c r="BJ60" s="3"/>
-    </row>
-    <row r="61" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK60" s="3"/>
+      <c r="BL60" s="3"/>
+      <c r="BM60" s="3"/>
+      <c r="BN60" s="3"/>
+    </row>
+    <row r="61" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5404,8 +5660,12 @@
       <c r="BH61" s="3"/>
       <c r="BI61" s="3"/>
       <c r="BJ61" s="3"/>
-    </row>
-    <row r="62" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK61" s="3"/>
+      <c r="BL61" s="3"/>
+      <c r="BM61" s="3"/>
+      <c r="BN61" s="3"/>
+    </row>
+    <row r="62" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5466,8 +5726,12 @@
       <c r="BH62" s="3"/>
       <c r="BI62" s="3"/>
       <c r="BJ62" s="3"/>
-    </row>
-    <row r="63" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK62" s="3"/>
+      <c r="BL62" s="3"/>
+      <c r="BM62" s="3"/>
+      <c r="BN62" s="3"/>
+    </row>
+    <row r="63" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5528,8 +5792,12 @@
       <c r="BH63" s="3"/>
       <c r="BI63" s="3"/>
       <c r="BJ63" s="3"/>
-    </row>
-    <row r="64" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK63" s="3"/>
+      <c r="BL63" s="3"/>
+      <c r="BM63" s="3"/>
+      <c r="BN63" s="3"/>
+    </row>
+    <row r="64" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5590,8 +5858,12 @@
       <c r="BH64" s="3"/>
       <c r="BI64" s="3"/>
       <c r="BJ64" s="3"/>
-    </row>
-    <row r="65" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK64" s="3"/>
+      <c r="BL64" s="3"/>
+      <c r="BM64" s="3"/>
+      <c r="BN64" s="3"/>
+    </row>
+    <row r="65" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5652,8 +5924,12 @@
       <c r="BH65" s="3"/>
       <c r="BI65" s="3"/>
       <c r="BJ65" s="3"/>
-    </row>
-    <row r="66" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK65" s="3"/>
+      <c r="BL65" s="3"/>
+      <c r="BM65" s="3"/>
+      <c r="BN65" s="3"/>
+    </row>
+    <row r="66" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5714,8 +5990,12 @@
       <c r="BH66" s="3"/>
       <c r="BI66" s="3"/>
       <c r="BJ66" s="3"/>
-    </row>
-    <row r="67" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK66" s="3"/>
+      <c r="BL66" s="3"/>
+      <c r="BM66" s="3"/>
+      <c r="BN66" s="3"/>
+    </row>
+    <row r="67" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5776,8 +6056,12 @@
       <c r="BH67" s="3"/>
       <c r="BI67" s="3"/>
       <c r="BJ67" s="3"/>
-    </row>
-    <row r="68" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK67" s="3"/>
+      <c r="BL67" s="3"/>
+      <c r="BM67" s="3"/>
+      <c r="BN67" s="3"/>
+    </row>
+    <row r="68" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5838,8 +6122,12 @@
       <c r="BH68" s="3"/>
       <c r="BI68" s="3"/>
       <c r="BJ68" s="3"/>
-    </row>
-    <row r="69" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK68" s="3"/>
+      <c r="BL68" s="3"/>
+      <c r="BM68" s="3"/>
+      <c r="BN68" s="3"/>
+    </row>
+    <row r="69" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5900,8 +6188,12 @@
       <c r="BH69" s="3"/>
       <c r="BI69" s="3"/>
       <c r="BJ69" s="3"/>
-    </row>
-    <row r="70" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK69" s="3"/>
+      <c r="BL69" s="3"/>
+      <c r="BM69" s="3"/>
+      <c r="BN69" s="3"/>
+    </row>
+    <row r="70" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5962,8 +6254,12 @@
       <c r="BH70" s="3"/>
       <c r="BI70" s="3"/>
       <c r="BJ70" s="3"/>
-    </row>
-    <row r="71" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK70" s="3"/>
+      <c r="BL70" s="3"/>
+      <c r="BM70" s="3"/>
+      <c r="BN70" s="3"/>
+    </row>
+    <row r="71" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6024,8 +6320,12 @@
       <c r="BH71" s="3"/>
       <c r="BI71" s="3"/>
       <c r="BJ71" s="3"/>
-    </row>
-    <row r="72" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK71" s="3"/>
+      <c r="BL71" s="3"/>
+      <c r="BM71" s="3"/>
+      <c r="BN71" s="3"/>
+    </row>
+    <row r="72" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6086,8 +6386,12 @@
       <c r="BH72" s="3"/>
       <c r="BI72" s="3"/>
       <c r="BJ72" s="3"/>
-    </row>
-    <row r="73" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK72" s="3"/>
+      <c r="BL72" s="3"/>
+      <c r="BM72" s="3"/>
+      <c r="BN72" s="3"/>
+    </row>
+    <row r="73" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6148,8 +6452,12 @@
       <c r="BH73" s="3"/>
       <c r="BI73" s="3"/>
       <c r="BJ73" s="3"/>
-    </row>
-    <row r="74" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK73" s="3"/>
+      <c r="BL73" s="3"/>
+      <c r="BM73" s="3"/>
+      <c r="BN73" s="3"/>
+    </row>
+    <row r="74" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6210,8 +6518,12 @@
       <c r="BH74" s="3"/>
       <c r="BI74" s="3"/>
       <c r="BJ74" s="3"/>
-    </row>
-    <row r="75" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK74" s="3"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+    </row>
+    <row r="75" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6272,8 +6584,12 @@
       <c r="BH75" s="3"/>
       <c r="BI75" s="3"/>
       <c r="BJ75" s="3"/>
-    </row>
-    <row r="76" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK75" s="3"/>
+      <c r="BL75" s="3"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
+    </row>
+    <row r="76" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6334,8 +6650,12 @@
       <c r="BH76" s="3"/>
       <c r="BI76" s="3"/>
       <c r="BJ76" s="3"/>
-    </row>
-    <row r="77" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK76" s="3"/>
+      <c r="BL76" s="3"/>
+      <c r="BM76" s="3"/>
+      <c r="BN76" s="3"/>
+    </row>
+    <row r="77" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6396,8 +6716,12 @@
       <c r="BH77" s="3"/>
       <c r="BI77" s="3"/>
       <c r="BJ77" s="3"/>
-    </row>
-    <row r="78" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK77" s="3"/>
+      <c r="BL77" s="3"/>
+      <c r="BM77" s="3"/>
+      <c r="BN77" s="3"/>
+    </row>
+    <row r="78" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6458,8 +6782,12 @@
       <c r="BH78" s="3"/>
       <c r="BI78" s="3"/>
       <c r="BJ78" s="3"/>
-    </row>
-    <row r="79" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="3"/>
+      <c r="BN78" s="3"/>
+    </row>
+    <row r="79" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6520,8 +6848,12 @@
       <c r="BH79" s="3"/>
       <c r="BI79" s="3"/>
       <c r="BJ79" s="3"/>
-    </row>
-    <row r="80" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK79" s="3"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="3"/>
+      <c r="BN79" s="3"/>
+    </row>
+    <row r="80" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6582,8 +6914,12 @@
       <c r="BH80" s="3"/>
       <c r="BI80" s="3"/>
       <c r="BJ80" s="3"/>
-    </row>
-    <row r="81" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK80" s="3"/>
+      <c r="BL80" s="3"/>
+      <c r="BM80" s="3"/>
+      <c r="BN80" s="3"/>
+    </row>
+    <row r="81" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6644,8 +6980,12 @@
       <c r="BH81" s="3"/>
       <c r="BI81" s="3"/>
       <c r="BJ81" s="3"/>
-    </row>
-    <row r="82" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK81" s="3"/>
+      <c r="BL81" s="3"/>
+      <c r="BM81" s="3"/>
+      <c r="BN81" s="3"/>
+    </row>
+    <row r="82" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6706,8 +7046,12 @@
       <c r="BH82" s="3"/>
       <c r="BI82" s="3"/>
       <c r="BJ82" s="3"/>
-    </row>
-    <row r="83" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK82" s="3"/>
+      <c r="BL82" s="3"/>
+      <c r="BM82" s="3"/>
+      <c r="BN82" s="3"/>
+    </row>
+    <row r="83" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6768,8 +7112,12 @@
       <c r="BH83" s="3"/>
       <c r="BI83" s="3"/>
       <c r="BJ83" s="3"/>
-    </row>
-    <row r="84" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK83" s="3"/>
+      <c r="BL83" s="3"/>
+      <c r="BM83" s="3"/>
+      <c r="BN83" s="3"/>
+    </row>
+    <row r="84" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6830,8 +7178,12 @@
       <c r="BH84" s="3"/>
       <c r="BI84" s="3"/>
       <c r="BJ84" s="3"/>
-    </row>
-    <row r="85" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK84" s="3"/>
+      <c r="BL84" s="3"/>
+      <c r="BM84" s="3"/>
+      <c r="BN84" s="3"/>
+    </row>
+    <row r="85" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6892,8 +7244,12 @@
       <c r="BH85" s="3"/>
       <c r="BI85" s="3"/>
       <c r="BJ85" s="3"/>
-    </row>
-    <row r="86" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK85" s="3"/>
+      <c r="BL85" s="3"/>
+      <c r="BM85" s="3"/>
+      <c r="BN85" s="3"/>
+    </row>
+    <row r="86" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6954,8 +7310,12 @@
       <c r="BH86" s="3"/>
       <c r="BI86" s="3"/>
       <c r="BJ86" s="3"/>
-    </row>
-    <row r="87" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK86" s="3"/>
+      <c r="BL86" s="3"/>
+      <c r="BM86" s="3"/>
+      <c r="BN86" s="3"/>
+    </row>
+    <row r="87" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -7016,8 +7376,12 @@
       <c r="BH87" s="3"/>
       <c r="BI87" s="3"/>
       <c r="BJ87" s="3"/>
-    </row>
-    <row r="88" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK87" s="3"/>
+      <c r="BL87" s="3"/>
+      <c r="BM87" s="3"/>
+      <c r="BN87" s="3"/>
+    </row>
+    <row r="88" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -7078,8 +7442,12 @@
       <c r="BH88" s="3"/>
       <c r="BI88" s="3"/>
       <c r="BJ88" s="3"/>
-    </row>
-    <row r="89" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK88" s="3"/>
+      <c r="BL88" s="3"/>
+      <c r="BM88" s="3"/>
+      <c r="BN88" s="3"/>
+    </row>
+    <row r="89" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -7140,8 +7508,12 @@
       <c r="BH89" s="3"/>
       <c r="BI89" s="3"/>
       <c r="BJ89" s="3"/>
-    </row>
-    <row r="90" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK89" s="3"/>
+      <c r="BL89" s="3"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
+    </row>
+    <row r="90" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7202,8 +7574,12 @@
       <c r="BH90" s="3"/>
       <c r="BI90" s="3"/>
       <c r="BJ90" s="3"/>
-    </row>
-    <row r="91" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK90" s="3"/>
+      <c r="BL90" s="3"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
+    </row>
+    <row r="91" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7264,8 +7640,12 @@
       <c r="BH91" s="3"/>
       <c r="BI91" s="3"/>
       <c r="BJ91" s="3"/>
-    </row>
-    <row r="92" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK91" s="3"/>
+      <c r="BL91" s="3"/>
+      <c r="BM91" s="3"/>
+      <c r="BN91" s="3"/>
+    </row>
+    <row r="92" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7326,8 +7706,12 @@
       <c r="BH92" s="3"/>
       <c r="BI92" s="3"/>
       <c r="BJ92" s="3"/>
-    </row>
-    <row r="93" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK92" s="3"/>
+      <c r="BL92" s="3"/>
+      <c r="BM92" s="3"/>
+      <c r="BN92" s="3"/>
+    </row>
+    <row r="93" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7388,8 +7772,12 @@
       <c r="BH93" s="3"/>
       <c r="BI93" s="3"/>
       <c r="BJ93" s="3"/>
-    </row>
-    <row r="94" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK93" s="3"/>
+      <c r="BL93" s="3"/>
+      <c r="BM93" s="3"/>
+      <c r="BN93" s="3"/>
+    </row>
+    <row r="94" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7450,8 +7838,12 @@
       <c r="BH94" s="3"/>
       <c r="BI94" s="3"/>
       <c r="BJ94" s="3"/>
-    </row>
-    <row r="95" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK94" s="3"/>
+      <c r="BL94" s="3"/>
+      <c r="BM94" s="3"/>
+      <c r="BN94" s="3"/>
+    </row>
+    <row r="95" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7512,8 +7904,12 @@
       <c r="BH95" s="3"/>
       <c r="BI95" s="3"/>
       <c r="BJ95" s="3"/>
-    </row>
-    <row r="96" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK95" s="3"/>
+      <c r="BL95" s="3"/>
+      <c r="BM95" s="3"/>
+      <c r="BN95" s="3"/>
+    </row>
+    <row r="96" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7574,8 +7970,12 @@
       <c r="BH96" s="3"/>
       <c r="BI96" s="3"/>
       <c r="BJ96" s="3"/>
-    </row>
-    <row r="97" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK96" s="3"/>
+      <c r="BL96" s="3"/>
+      <c r="BM96" s="3"/>
+      <c r="BN96" s="3"/>
+    </row>
+    <row r="97" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7636,8 +8036,12 @@
       <c r="BH97" s="3"/>
       <c r="BI97" s="3"/>
       <c r="BJ97" s="3"/>
-    </row>
-    <row r="98" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK97" s="3"/>
+      <c r="BL97" s="3"/>
+      <c r="BM97" s="3"/>
+      <c r="BN97" s="3"/>
+    </row>
+    <row r="98" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7698,8 +8102,12 @@
       <c r="BH98" s="3"/>
       <c r="BI98" s="3"/>
       <c r="BJ98" s="3"/>
-    </row>
-    <row r="99" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK98" s="3"/>
+      <c r="BL98" s="3"/>
+      <c r="BM98" s="3"/>
+      <c r="BN98" s="3"/>
+    </row>
+    <row r="99" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7760,8 +8168,12 @@
       <c r="BH99" s="3"/>
       <c r="BI99" s="3"/>
       <c r="BJ99" s="3"/>
-    </row>
-    <row r="100" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK99" s="3"/>
+      <c r="BL99" s="3"/>
+      <c r="BM99" s="3"/>
+      <c r="BN99" s="3"/>
+    </row>
+    <row r="100" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7822,8 +8234,12 @@
       <c r="BH100" s="3"/>
       <c r="BI100" s="3"/>
       <c r="BJ100" s="3"/>
-    </row>
-    <row r="101" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK100" s="3"/>
+      <c r="BL100" s="3"/>
+      <c r="BM100" s="3"/>
+      <c r="BN100" s="3"/>
+    </row>
+    <row r="101" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7884,8 +8300,12 @@
       <c r="BH101" s="3"/>
       <c r="BI101" s="3"/>
       <c r="BJ101" s="3"/>
-    </row>
-    <row r="102" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK101" s="3"/>
+      <c r="BL101" s="3"/>
+      <c r="BM101" s="3"/>
+      <c r="BN101" s="3"/>
+    </row>
+    <row r="102" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7946,8 +8366,12 @@
       <c r="BH102" s="3"/>
       <c r="BI102" s="3"/>
       <c r="BJ102" s="3"/>
-    </row>
-    <row r="103" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK102" s="3"/>
+      <c r="BL102" s="3"/>
+      <c r="BM102" s="3"/>
+      <c r="BN102" s="3"/>
+    </row>
+    <row r="103" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8008,8 +8432,12 @@
       <c r="BH103" s="3"/>
       <c r="BI103" s="3"/>
       <c r="BJ103" s="3"/>
-    </row>
-    <row r="104" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK103" s="3"/>
+      <c r="BL103" s="3"/>
+      <c r="BM103" s="3"/>
+      <c r="BN103" s="3"/>
+    </row>
+    <row r="104" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8070,8 +8498,12 @@
       <c r="BH104" s="3"/>
       <c r="BI104" s="3"/>
       <c r="BJ104" s="3"/>
-    </row>
-    <row r="105" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK104" s="3"/>
+      <c r="BL104" s="3"/>
+      <c r="BM104" s="3"/>
+      <c r="BN104" s="3"/>
+    </row>
+    <row r="105" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8132,8 +8564,12 @@
       <c r="BH105" s="3"/>
       <c r="BI105" s="3"/>
       <c r="BJ105" s="3"/>
-    </row>
-    <row r="106" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK105" s="3"/>
+      <c r="BL105" s="3"/>
+      <c r="BM105" s="3"/>
+      <c r="BN105" s="3"/>
+    </row>
+    <row r="106" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8194,8 +8630,12 @@
       <c r="BH106" s="3"/>
       <c r="BI106" s="3"/>
       <c r="BJ106" s="3"/>
-    </row>
-    <row r="107" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK106" s="3"/>
+      <c r="BL106" s="3"/>
+      <c r="BM106" s="3"/>
+      <c r="BN106" s="3"/>
+    </row>
+    <row r="107" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8256,8 +8696,12 @@
       <c r="BH107" s="3"/>
       <c r="BI107" s="3"/>
       <c r="BJ107" s="3"/>
-    </row>
-    <row r="108" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK107" s="3"/>
+      <c r="BL107" s="3"/>
+      <c r="BM107" s="3"/>
+      <c r="BN107" s="3"/>
+    </row>
+    <row r="108" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8318,8 +8762,12 @@
       <c r="BH108" s="3"/>
       <c r="BI108" s="3"/>
       <c r="BJ108" s="3"/>
-    </row>
-    <row r="109" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK108" s="3"/>
+      <c r="BL108" s="3"/>
+      <c r="BM108" s="3"/>
+      <c r="BN108" s="3"/>
+    </row>
+    <row r="109" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8380,8 +8828,12 @@
       <c r="BH109" s="3"/>
       <c r="BI109" s="3"/>
       <c r="BJ109" s="3"/>
-    </row>
-    <row r="110" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK109" s="3"/>
+      <c r="BL109" s="3"/>
+      <c r="BM109" s="3"/>
+      <c r="BN109" s="3"/>
+    </row>
+    <row r="110" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8442,8 +8894,12 @@
       <c r="BH110" s="3"/>
       <c r="BI110" s="3"/>
       <c r="BJ110" s="3"/>
-    </row>
-    <row r="111" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK110" s="3"/>
+      <c r="BL110" s="3"/>
+      <c r="BM110" s="3"/>
+      <c r="BN110" s="3"/>
+    </row>
+    <row r="111" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8504,8 +8960,12 @@
       <c r="BH111" s="3"/>
       <c r="BI111" s="3"/>
       <c r="BJ111" s="3"/>
-    </row>
-    <row r="112" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK111" s="3"/>
+      <c r="BL111" s="3"/>
+      <c r="BM111" s="3"/>
+      <c r="BN111" s="3"/>
+    </row>
+    <row r="112" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8566,8 +9026,12 @@
       <c r="BH112" s="3"/>
       <c r="BI112" s="3"/>
       <c r="BJ112" s="3"/>
-    </row>
-    <row r="113" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK112" s="3"/>
+      <c r="BL112" s="3"/>
+      <c r="BM112" s="3"/>
+      <c r="BN112" s="3"/>
+    </row>
+    <row r="113" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8628,8 +9092,12 @@
       <c r="BH113" s="3"/>
       <c r="BI113" s="3"/>
       <c r="BJ113" s="3"/>
-    </row>
-    <row r="114" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK113" s="3"/>
+      <c r="BL113" s="3"/>
+      <c r="BM113" s="3"/>
+      <c r="BN113" s="3"/>
+    </row>
+    <row r="114" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8690,8 +9158,12 @@
       <c r="BH114" s="3"/>
       <c r="BI114" s="3"/>
       <c r="BJ114" s="3"/>
-    </row>
-    <row r="115" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK114" s="3"/>
+      <c r="BL114" s="3"/>
+      <c r="BM114" s="3"/>
+      <c r="BN114" s="3"/>
+    </row>
+    <row r="115" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8752,8 +9224,12 @@
       <c r="BH115" s="3"/>
       <c r="BI115" s="3"/>
       <c r="BJ115" s="3"/>
-    </row>
-    <row r="116" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK115" s="3"/>
+      <c r="BL115" s="3"/>
+      <c r="BM115" s="3"/>
+      <c r="BN115" s="3"/>
+    </row>
+    <row r="116" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8814,8 +9290,12 @@
       <c r="BH116" s="3"/>
       <c r="BI116" s="3"/>
       <c r="BJ116" s="3"/>
-    </row>
-    <row r="117" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK116" s="3"/>
+      <c r="BL116" s="3"/>
+      <c r="BM116" s="3"/>
+      <c r="BN116" s="3"/>
+    </row>
+    <row r="117" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8876,8 +9356,12 @@
       <c r="BH117" s="3"/>
       <c r="BI117" s="3"/>
       <c r="BJ117" s="3"/>
-    </row>
-    <row r="118" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK117" s="3"/>
+      <c r="BL117" s="3"/>
+      <c r="BM117" s="3"/>
+      <c r="BN117" s="3"/>
+    </row>
+    <row r="118" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8938,8 +9422,12 @@
       <c r="BH118" s="3"/>
       <c r="BI118" s="3"/>
       <c r="BJ118" s="3"/>
-    </row>
-    <row r="119" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK118" s="3"/>
+      <c r="BL118" s="3"/>
+      <c r="BM118" s="3"/>
+      <c r="BN118" s="3"/>
+    </row>
+    <row r="119" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -9000,8 +9488,12 @@
       <c r="BH119" s="3"/>
       <c r="BI119" s="3"/>
       <c r="BJ119" s="3"/>
-    </row>
-    <row r="120" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK119" s="3"/>
+      <c r="BL119" s="3"/>
+      <c r="BM119" s="3"/>
+      <c r="BN119" s="3"/>
+    </row>
+    <row r="120" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -9062,8 +9554,12 @@
       <c r="BH120" s="3"/>
       <c r="BI120" s="3"/>
       <c r="BJ120" s="3"/>
-    </row>
-    <row r="121" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK120" s="3"/>
+      <c r="BL120" s="3"/>
+      <c r="BM120" s="3"/>
+      <c r="BN120" s="3"/>
+    </row>
+    <row r="121" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -9124,8 +9620,12 @@
       <c r="BH121" s="3"/>
       <c r="BI121" s="3"/>
       <c r="BJ121" s="3"/>
-    </row>
-    <row r="122" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK121" s="3"/>
+      <c r="BL121" s="3"/>
+      <c r="BM121" s="3"/>
+      <c r="BN121" s="3"/>
+    </row>
+    <row r="122" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -9186,8 +9686,12 @@
       <c r="BH122" s="3"/>
       <c r="BI122" s="3"/>
       <c r="BJ122" s="3"/>
-    </row>
-    <row r="123" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK122" s="3"/>
+      <c r="BL122" s="3"/>
+      <c r="BM122" s="3"/>
+      <c r="BN122" s="3"/>
+    </row>
+    <row r="123" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -9248,8 +9752,12 @@
       <c r="BH123" s="3"/>
       <c r="BI123" s="3"/>
       <c r="BJ123" s="3"/>
-    </row>
-    <row r="124" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK123" s="3"/>
+      <c r="BL123" s="3"/>
+      <c r="BM123" s="3"/>
+      <c r="BN123" s="3"/>
+    </row>
+    <row r="124" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -9310,8 +9818,12 @@
       <c r="BH124" s="3"/>
       <c r="BI124" s="3"/>
       <c r="BJ124" s="3"/>
-    </row>
-    <row r="125" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK124" s="3"/>
+      <c r="BL124" s="3"/>
+      <c r="BM124" s="3"/>
+      <c r="BN124" s="3"/>
+    </row>
+    <row r="125" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9372,8 +9884,12 @@
       <c r="BH125" s="3"/>
       <c r="BI125" s="3"/>
       <c r="BJ125" s="3"/>
-    </row>
-    <row r="126" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK125" s="3"/>
+      <c r="BL125" s="3"/>
+      <c r="BM125" s="3"/>
+      <c r="BN125" s="3"/>
+    </row>
+    <row r="126" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9434,8 +9950,12 @@
       <c r="BH126" s="3"/>
       <c r="BI126" s="3"/>
       <c r="BJ126" s="3"/>
-    </row>
-    <row r="127" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK126" s="3"/>
+      <c r="BL126" s="3"/>
+      <c r="BM126" s="3"/>
+      <c r="BN126" s="3"/>
+    </row>
+    <row r="127" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9496,8 +10016,12 @@
       <c r="BH127" s="3"/>
       <c r="BI127" s="3"/>
       <c r="BJ127" s="3"/>
-    </row>
-    <row r="128" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK127" s="3"/>
+      <c r="BL127" s="3"/>
+      <c r="BM127" s="3"/>
+      <c r="BN127" s="3"/>
+    </row>
+    <row r="128" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9558,8 +10082,12 @@
       <c r="BH128" s="3"/>
       <c r="BI128" s="3"/>
       <c r="BJ128" s="3"/>
-    </row>
-    <row r="129" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK128" s="3"/>
+      <c r="BL128" s="3"/>
+      <c r="BM128" s="3"/>
+      <c r="BN128" s="3"/>
+    </row>
+    <row r="129" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9620,8 +10148,12 @@
       <c r="BH129" s="3"/>
       <c r="BI129" s="3"/>
       <c r="BJ129" s="3"/>
-    </row>
-    <row r="130" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK129" s="3"/>
+      <c r="BL129" s="3"/>
+      <c r="BM129" s="3"/>
+      <c r="BN129" s="3"/>
+    </row>
+    <row r="130" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9682,8 +10214,12 @@
       <c r="BH130" s="3"/>
       <c r="BI130" s="3"/>
       <c r="BJ130" s="3"/>
-    </row>
-    <row r="131" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK130" s="3"/>
+      <c r="BL130" s="3"/>
+      <c r="BM130" s="3"/>
+      <c r="BN130" s="3"/>
+    </row>
+    <row r="131" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9744,8 +10280,12 @@
       <c r="BH131" s="3"/>
       <c r="BI131" s="3"/>
       <c r="BJ131" s="3"/>
-    </row>
-    <row r="132" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK131" s="3"/>
+      <c r="BL131" s="3"/>
+      <c r="BM131" s="3"/>
+      <c r="BN131" s="3"/>
+    </row>
+    <row r="132" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9806,8 +10346,12 @@
       <c r="BH132" s="3"/>
       <c r="BI132" s="3"/>
       <c r="BJ132" s="3"/>
-    </row>
-    <row r="133" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK132" s="3"/>
+      <c r="BL132" s="3"/>
+      <c r="BM132" s="3"/>
+      <c r="BN132" s="3"/>
+    </row>
+    <row r="133" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9868,8 +10412,12 @@
       <c r="BH133" s="3"/>
       <c r="BI133" s="3"/>
       <c r="BJ133" s="3"/>
-    </row>
-    <row r="134" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK133" s="3"/>
+      <c r="BL133" s="3"/>
+      <c r="BM133" s="3"/>
+      <c r="BN133" s="3"/>
+    </row>
+    <row r="134" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9930,8 +10478,12 @@
       <c r="BH134" s="3"/>
       <c r="BI134" s="3"/>
       <c r="BJ134" s="3"/>
-    </row>
-    <row r="135" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK134" s="3"/>
+      <c r="BL134" s="3"/>
+      <c r="BM134" s="3"/>
+      <c r="BN134" s="3"/>
+    </row>
+    <row r="135" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9992,8 +10544,12 @@
       <c r="BH135" s="3"/>
       <c r="BI135" s="3"/>
       <c r="BJ135" s="3"/>
-    </row>
-    <row r="136" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK135" s="3"/>
+      <c r="BL135" s="3"/>
+      <c r="BM135" s="3"/>
+      <c r="BN135" s="3"/>
+    </row>
+    <row r="136" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -10054,8 +10610,12 @@
       <c r="BH136" s="3"/>
       <c r="BI136" s="3"/>
       <c r="BJ136" s="3"/>
-    </row>
-    <row r="137" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK136" s="3"/>
+      <c r="BL136" s="3"/>
+      <c r="BM136" s="3"/>
+      <c r="BN136" s="3"/>
+    </row>
+    <row r="137" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -10116,8 +10676,12 @@
       <c r="BH137" s="3"/>
       <c r="BI137" s="3"/>
       <c r="BJ137" s="3"/>
-    </row>
-    <row r="138" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK137" s="3"/>
+      <c r="BL137" s="3"/>
+      <c r="BM137" s="3"/>
+      <c r="BN137" s="3"/>
+    </row>
+    <row r="138" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -10178,8 +10742,12 @@
       <c r="BH138" s="3"/>
       <c r="BI138" s="3"/>
       <c r="BJ138" s="3"/>
-    </row>
-    <row r="139" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK138" s="3"/>
+      <c r="BL138" s="3"/>
+      <c r="BM138" s="3"/>
+      <c r="BN138" s="3"/>
+    </row>
+    <row r="139" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -10240,8 +10808,12 @@
       <c r="BH139" s="3"/>
       <c r="BI139" s="3"/>
       <c r="BJ139" s="3"/>
-    </row>
-    <row r="140" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK139" s="3"/>
+      <c r="BL139" s="3"/>
+      <c r="BM139" s="3"/>
+      <c r="BN139" s="3"/>
+    </row>
+    <row r="140" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10302,8 +10874,12 @@
       <c r="BH140" s="3"/>
       <c r="BI140" s="3"/>
       <c r="BJ140" s="3"/>
-    </row>
-    <row r="141" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK140" s="3"/>
+      <c r="BL140" s="3"/>
+      <c r="BM140" s="3"/>
+      <c r="BN140" s="3"/>
+    </row>
+    <row r="141" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10364,8 +10940,12 @@
       <c r="BH141" s="3"/>
       <c r="BI141" s="3"/>
       <c r="BJ141" s="3"/>
-    </row>
-    <row r="142" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK141" s="3"/>
+      <c r="BL141" s="3"/>
+      <c r="BM141" s="3"/>
+      <c r="BN141" s="3"/>
+    </row>
+    <row r="142" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10426,8 +11006,12 @@
       <c r="BH142" s="3"/>
       <c r="BI142" s="3"/>
       <c r="BJ142" s="3"/>
-    </row>
-    <row r="143" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK142" s="3"/>
+      <c r="BL142" s="3"/>
+      <c r="BM142" s="3"/>
+      <c r="BN142" s="3"/>
+    </row>
+    <row r="143" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10488,8 +11072,12 @@
       <c r="BH143" s="3"/>
       <c r="BI143" s="3"/>
       <c r="BJ143" s="3"/>
-    </row>
-    <row r="144" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK143" s="3"/>
+      <c r="BL143" s="3"/>
+      <c r="BM143" s="3"/>
+      <c r="BN143" s="3"/>
+    </row>
+    <row r="144" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10550,8 +11138,12 @@
       <c r="BH144" s="3"/>
       <c r="BI144" s="3"/>
       <c r="BJ144" s="3"/>
-    </row>
-    <row r="145" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK144" s="3"/>
+      <c r="BL144" s="3"/>
+      <c r="BM144" s="3"/>
+      <c r="BN144" s="3"/>
+    </row>
+    <row r="145" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10612,8 +11204,12 @@
       <c r="BH145" s="3"/>
       <c r="BI145" s="3"/>
       <c r="BJ145" s="3"/>
-    </row>
-    <row r="146" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK145" s="3"/>
+      <c r="BL145" s="3"/>
+      <c r="BM145" s="3"/>
+      <c r="BN145" s="3"/>
+    </row>
+    <row r="146" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10674,8 +11270,12 @@
       <c r="BH146" s="3"/>
       <c r="BI146" s="3"/>
       <c r="BJ146" s="3"/>
-    </row>
-    <row r="147" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK146" s="3"/>
+      <c r="BL146" s="3"/>
+      <c r="BM146" s="3"/>
+      <c r="BN146" s="3"/>
+    </row>
+    <row r="147" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10736,8 +11336,12 @@
       <c r="BH147" s="3"/>
       <c r="BI147" s="3"/>
       <c r="BJ147" s="3"/>
-    </row>
-    <row r="148" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK147" s="3"/>
+      <c r="BL147" s="3"/>
+      <c r="BM147" s="3"/>
+      <c r="BN147" s="3"/>
+    </row>
+    <row r="148" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10798,8 +11402,12 @@
       <c r="BH148" s="3"/>
       <c r="BI148" s="3"/>
       <c r="BJ148" s="3"/>
-    </row>
-    <row r="149" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK148" s="3"/>
+      <c r="BL148" s="3"/>
+      <c r="BM148" s="3"/>
+      <c r="BN148" s="3"/>
+    </row>
+    <row r="149" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10860,8 +11468,12 @@
       <c r="BH149" s="3"/>
       <c r="BI149" s="3"/>
       <c r="BJ149" s="3"/>
-    </row>
-    <row r="150" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK149" s="3"/>
+      <c r="BL149" s="3"/>
+      <c r="BM149" s="3"/>
+      <c r="BN149" s="3"/>
+    </row>
+    <row r="150" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10922,8 +11534,12 @@
       <c r="BH150" s="3"/>
       <c r="BI150" s="3"/>
       <c r="BJ150" s="3"/>
-    </row>
-    <row r="151" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK150" s="3"/>
+      <c r="BL150" s="3"/>
+      <c r="BM150" s="3"/>
+      <c r="BN150" s="3"/>
+    </row>
+    <row r="151" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10984,8 +11600,12 @@
       <c r="BH151" s="3"/>
       <c r="BI151" s="3"/>
       <c r="BJ151" s="3"/>
-    </row>
-    <row r="152" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK151" s="3"/>
+      <c r="BL151" s="3"/>
+      <c r="BM151" s="3"/>
+      <c r="BN151" s="3"/>
+    </row>
+    <row r="152" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -11046,8 +11666,12 @@
       <c r="BH152" s="3"/>
       <c r="BI152" s="3"/>
       <c r="BJ152" s="3"/>
-    </row>
-    <row r="153" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK152" s="3"/>
+      <c r="BL152" s="3"/>
+      <c r="BM152" s="3"/>
+      <c r="BN152" s="3"/>
+    </row>
+    <row r="153" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -11108,8 +11732,12 @@
       <c r="BH153" s="3"/>
       <c r="BI153" s="3"/>
       <c r="BJ153" s="3"/>
-    </row>
-    <row r="154" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK153" s="3"/>
+      <c r="BL153" s="3"/>
+      <c r="BM153" s="3"/>
+      <c r="BN153" s="3"/>
+    </row>
+    <row r="154" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -11170,8 +11798,12 @@
       <c r="BH154" s="3"/>
       <c r="BI154" s="3"/>
       <c r="BJ154" s="3"/>
-    </row>
-    <row r="155" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK154" s="3"/>
+      <c r="BL154" s="3"/>
+      <c r="BM154" s="3"/>
+      <c r="BN154" s="3"/>
+    </row>
+    <row r="155" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -11232,8 +11864,12 @@
       <c r="BH155" s="3"/>
       <c r="BI155" s="3"/>
       <c r="BJ155" s="3"/>
-    </row>
-    <row r="156" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK155" s="3"/>
+      <c r="BL155" s="3"/>
+      <c r="BM155" s="3"/>
+      <c r="BN155" s="3"/>
+    </row>
+    <row r="156" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11294,8 +11930,12 @@
       <c r="BH156" s="3"/>
       <c r="BI156" s="3"/>
       <c r="BJ156" s="3"/>
-    </row>
-    <row r="157" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK156" s="3"/>
+      <c r="BL156" s="3"/>
+      <c r="BM156" s="3"/>
+      <c r="BN156" s="3"/>
+    </row>
+    <row r="157" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11356,8 +11996,12 @@
       <c r="BH157" s="3"/>
       <c r="BI157" s="3"/>
       <c r="BJ157" s="3"/>
-    </row>
-    <row r="158" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK157" s="3"/>
+      <c r="BL157" s="3"/>
+      <c r="BM157" s="3"/>
+      <c r="BN157" s="3"/>
+    </row>
+    <row r="158" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11418,8 +12062,12 @@
       <c r="BH158" s="3"/>
       <c r="BI158" s="3"/>
       <c r="BJ158" s="3"/>
-    </row>
-    <row r="159" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK158" s="3"/>
+      <c r="BL158" s="3"/>
+      <c r="BM158" s="3"/>
+      <c r="BN158" s="3"/>
+    </row>
+    <row r="159" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11480,8 +12128,12 @@
       <c r="BH159" s="3"/>
       <c r="BI159" s="3"/>
       <c r="BJ159" s="3"/>
-    </row>
-    <row r="160" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK159" s="3"/>
+      <c r="BL159" s="3"/>
+      <c r="BM159" s="3"/>
+      <c r="BN159" s="3"/>
+    </row>
+    <row r="160" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11542,8 +12194,12 @@
       <c r="BH160" s="3"/>
       <c r="BI160" s="3"/>
       <c r="BJ160" s="3"/>
-    </row>
-    <row r="161" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK160" s="3"/>
+      <c r="BL160" s="3"/>
+      <c r="BM160" s="3"/>
+      <c r="BN160" s="3"/>
+    </row>
+    <row r="161" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11604,8 +12260,12 @@
       <c r="BH161" s="3"/>
       <c r="BI161" s="3"/>
       <c r="BJ161" s="3"/>
-    </row>
-    <row r="162" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK161" s="3"/>
+      <c r="BL161" s="3"/>
+      <c r="BM161" s="3"/>
+      <c r="BN161" s="3"/>
+    </row>
+    <row r="162" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11666,8 +12326,12 @@
       <c r="BH162" s="3"/>
       <c r="BI162" s="3"/>
       <c r="BJ162" s="3"/>
-    </row>
-    <row r="163" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK162" s="3"/>
+      <c r="BL162" s="3"/>
+      <c r="BM162" s="3"/>
+      <c r="BN162" s="3"/>
+    </row>
+    <row r="163" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11728,8 +12392,12 @@
       <c r="BH163" s="3"/>
       <c r="BI163" s="3"/>
       <c r="BJ163" s="3"/>
-    </row>
-    <row r="164" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK163" s="3"/>
+      <c r="BL163" s="3"/>
+      <c r="BM163" s="3"/>
+      <c r="BN163" s="3"/>
+    </row>
+    <row r="164" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11790,8 +12458,12 @@
       <c r="BH164" s="3"/>
       <c r="BI164" s="3"/>
       <c r="BJ164" s="3"/>
-    </row>
-    <row r="165" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK164" s="3"/>
+      <c r="BL164" s="3"/>
+      <c r="BM164" s="3"/>
+      <c r="BN164" s="3"/>
+    </row>
+    <row r="165" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11852,8 +12524,12 @@
       <c r="BH165" s="3"/>
       <c r="BI165" s="3"/>
       <c r="BJ165" s="3"/>
-    </row>
-    <row r="166" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK165" s="3"/>
+      <c r="BL165" s="3"/>
+      <c r="BM165" s="3"/>
+      <c r="BN165" s="3"/>
+    </row>
+    <row r="166" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11914,8 +12590,12 @@
       <c r="BH166" s="3"/>
       <c r="BI166" s="3"/>
       <c r="BJ166" s="3"/>
-    </row>
-    <row r="167" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK166" s="3"/>
+      <c r="BL166" s="3"/>
+      <c r="BM166" s="3"/>
+      <c r="BN166" s="3"/>
+    </row>
+    <row r="167" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11976,8 +12656,12 @@
       <c r="BH167" s="3"/>
       <c r="BI167" s="3"/>
       <c r="BJ167" s="3"/>
-    </row>
-    <row r="168" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK167" s="3"/>
+      <c r="BL167" s="3"/>
+      <c r="BM167" s="3"/>
+      <c r="BN167" s="3"/>
+    </row>
+    <row r="168" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -12038,8 +12722,12 @@
       <c r="BH168" s="3"/>
       <c r="BI168" s="3"/>
       <c r="BJ168" s="3"/>
-    </row>
-    <row r="169" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK168" s="3"/>
+      <c r="BL168" s="3"/>
+      <c r="BM168" s="3"/>
+      <c r="BN168" s="3"/>
+    </row>
+    <row r="169" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -12100,8 +12788,12 @@
       <c r="BH169" s="3"/>
       <c r="BI169" s="3"/>
       <c r="BJ169" s="3"/>
-    </row>
-    <row r="170" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK169" s="3"/>
+      <c r="BL169" s="3"/>
+      <c r="BM169" s="3"/>
+      <c r="BN169" s="3"/>
+    </row>
+    <row r="170" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -12162,8 +12854,12 @@
       <c r="BH170" s="3"/>
       <c r="BI170" s="3"/>
       <c r="BJ170" s="3"/>
-    </row>
-    <row r="171" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK170" s="3"/>
+      <c r="BL170" s="3"/>
+      <c r="BM170" s="3"/>
+      <c r="BN170" s="3"/>
+    </row>
+    <row r="171" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12224,8 +12920,12 @@
       <c r="BH171" s="3"/>
       <c r="BI171" s="3"/>
       <c r="BJ171" s="3"/>
-    </row>
-    <row r="172" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK171" s="3"/>
+      <c r="BL171" s="3"/>
+      <c r="BM171" s="3"/>
+      <c r="BN171" s="3"/>
+    </row>
+    <row r="172" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12286,8 +12986,12 @@
       <c r="BH172" s="3"/>
       <c r="BI172" s="3"/>
       <c r="BJ172" s="3"/>
-    </row>
-    <row r="173" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK172" s="3"/>
+      <c r="BL172" s="3"/>
+      <c r="BM172" s="3"/>
+      <c r="BN172" s="3"/>
+    </row>
+    <row r="173" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12348,8 +13052,12 @@
       <c r="BH173" s="3"/>
       <c r="BI173" s="3"/>
       <c r="BJ173" s="3"/>
-    </row>
-    <row r="174" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK173" s="3"/>
+      <c r="BL173" s="3"/>
+      <c r="BM173" s="3"/>
+      <c r="BN173" s="3"/>
+    </row>
+    <row r="174" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -12410,8 +13118,12 @@
       <c r="BH174" s="3"/>
       <c r="BI174" s="3"/>
       <c r="BJ174" s="3"/>
-    </row>
-    <row r="175" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK174" s="3"/>
+      <c r="BL174" s="3"/>
+      <c r="BM174" s="3"/>
+      <c r="BN174" s="3"/>
+    </row>
+    <row r="175" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12472,8 +13184,12 @@
       <c r="BH175" s="3"/>
       <c r="BI175" s="3"/>
       <c r="BJ175" s="3"/>
-    </row>
-    <row r="176" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK175" s="3"/>
+      <c r="BL175" s="3"/>
+      <c r="BM175" s="3"/>
+      <c r="BN175" s="3"/>
+    </row>
+    <row r="176" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -12534,8 +13250,12 @@
       <c r="BH176" s="3"/>
       <c r="BI176" s="3"/>
       <c r="BJ176" s="3"/>
-    </row>
-    <row r="177" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK176" s="3"/>
+      <c r="BL176" s="3"/>
+      <c r="BM176" s="3"/>
+      <c r="BN176" s="3"/>
+    </row>
+    <row r="177" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -12596,8 +13316,12 @@
       <c r="BH177" s="3"/>
       <c r="BI177" s="3"/>
       <c r="BJ177" s="3"/>
-    </row>
-    <row r="178" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK177" s="3"/>
+      <c r="BL177" s="3"/>
+      <c r="BM177" s="3"/>
+      <c r="BN177" s="3"/>
+    </row>
+    <row r="178" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12658,8 +13382,12 @@
       <c r="BH178" s="3"/>
       <c r="BI178" s="3"/>
       <c r="BJ178" s="3"/>
-    </row>
-    <row r="179" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK178" s="3"/>
+      <c r="BL178" s="3"/>
+      <c r="BM178" s="3"/>
+      <c r="BN178" s="3"/>
+    </row>
+    <row r="179" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12720,8 +13448,12 @@
       <c r="BH179" s="3"/>
       <c r="BI179" s="3"/>
       <c r="BJ179" s="3"/>
-    </row>
-    <row r="180" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK179" s="3"/>
+      <c r="BL179" s="3"/>
+      <c r="BM179" s="3"/>
+      <c r="BN179" s="3"/>
+    </row>
+    <row r="180" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12782,8 +13514,12 @@
       <c r="BH180" s="3"/>
       <c r="BI180" s="3"/>
       <c r="BJ180" s="3"/>
-    </row>
-    <row r="181" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK180" s="3"/>
+      <c r="BL180" s="3"/>
+      <c r="BM180" s="3"/>
+      <c r="BN180" s="3"/>
+    </row>
+    <row r="181" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12844,8 +13580,12 @@
       <c r="BH181" s="3"/>
       <c r="BI181" s="3"/>
       <c r="BJ181" s="3"/>
-    </row>
-    <row r="182" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK181" s="3"/>
+      <c r="BL181" s="3"/>
+      <c r="BM181" s="3"/>
+      <c r="BN181" s="3"/>
+    </row>
+    <row r="182" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12906,8 +13646,12 @@
       <c r="BH182" s="3"/>
       <c r="BI182" s="3"/>
       <c r="BJ182" s="3"/>
-    </row>
-    <row r="183" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK182" s="3"/>
+      <c r="BL182" s="3"/>
+      <c r="BM182" s="3"/>
+      <c r="BN182" s="3"/>
+    </row>
+    <row r="183" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12968,8 +13712,12 @@
       <c r="BH183" s="3"/>
       <c r="BI183" s="3"/>
       <c r="BJ183" s="3"/>
-    </row>
-    <row r="184" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK183" s="3"/>
+      <c r="BL183" s="3"/>
+      <c r="BM183" s="3"/>
+      <c r="BN183" s="3"/>
+    </row>
+    <row r="184" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -13030,8 +13778,12 @@
       <c r="BH184" s="3"/>
       <c r="BI184" s="3"/>
       <c r="BJ184" s="3"/>
-    </row>
-    <row r="185" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK184" s="3"/>
+      <c r="BL184" s="3"/>
+      <c r="BM184" s="3"/>
+      <c r="BN184" s="3"/>
+    </row>
+    <row r="185" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -13092,8 +13844,12 @@
       <c r="BH185" s="3"/>
       <c r="BI185" s="3"/>
       <c r="BJ185" s="3"/>
-    </row>
-    <row r="186" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK185" s="3"/>
+      <c r="BL185" s="3"/>
+      <c r="BM185" s="3"/>
+      <c r="BN185" s="3"/>
+    </row>
+    <row r="186" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13154,8 +13910,12 @@
       <c r="BH186" s="3"/>
       <c r="BI186" s="3"/>
       <c r="BJ186" s="3"/>
-    </row>
-    <row r="187" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK186" s="3"/>
+      <c r="BL186" s="3"/>
+      <c r="BM186" s="3"/>
+      <c r="BN186" s="3"/>
+    </row>
+    <row r="187" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13216,8 +13976,12 @@
       <c r="BH187" s="3"/>
       <c r="BI187" s="3"/>
       <c r="BJ187" s="3"/>
-    </row>
-    <row r="188" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK187" s="3"/>
+      <c r="BL187" s="3"/>
+      <c r="BM187" s="3"/>
+      <c r="BN187" s="3"/>
+    </row>
+    <row r="188" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13278,8 +14042,12 @@
       <c r="BH188" s="3"/>
       <c r="BI188" s="3"/>
       <c r="BJ188" s="3"/>
-    </row>
-    <row r="189" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK188" s="3"/>
+      <c r="BL188" s="3"/>
+      <c r="BM188" s="3"/>
+      <c r="BN188" s="3"/>
+    </row>
+    <row r="189" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13340,8 +14108,12 @@
       <c r="BH189" s="3"/>
       <c r="BI189" s="3"/>
       <c r="BJ189" s="3"/>
-    </row>
-    <row r="190" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK189" s="3"/>
+      <c r="BL189" s="3"/>
+      <c r="BM189" s="3"/>
+      <c r="BN189" s="3"/>
+    </row>
+    <row r="190" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13402,8 +14174,12 @@
       <c r="BH190" s="3"/>
       <c r="BI190" s="3"/>
       <c r="BJ190" s="3"/>
-    </row>
-    <row r="191" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK190" s="3"/>
+      <c r="BL190" s="3"/>
+      <c r="BM190" s="3"/>
+      <c r="BN190" s="3"/>
+    </row>
+    <row r="191" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13464,8 +14240,12 @@
       <c r="BH191" s="3"/>
       <c r="BI191" s="3"/>
       <c r="BJ191" s="3"/>
-    </row>
-    <row r="192" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK191" s="3"/>
+      <c r="BL191" s="3"/>
+      <c r="BM191" s="3"/>
+      <c r="BN191" s="3"/>
+    </row>
+    <row r="192" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -13526,8 +14306,12 @@
       <c r="BH192" s="3"/>
       <c r="BI192" s="3"/>
       <c r="BJ192" s="3"/>
-    </row>
-    <row r="193" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK192" s="3"/>
+      <c r="BL192" s="3"/>
+      <c r="BM192" s="3"/>
+      <c r="BN192" s="3"/>
+    </row>
+    <row r="193" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -13588,8 +14372,12 @@
       <c r="BH193" s="3"/>
       <c r="BI193" s="3"/>
       <c r="BJ193" s="3"/>
-    </row>
-    <row r="194" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK193" s="3"/>
+      <c r="BL193" s="3"/>
+      <c r="BM193" s="3"/>
+      <c r="BN193" s="3"/>
+    </row>
+    <row r="194" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -13650,8 +14438,12 @@
       <c r="BH194" s="3"/>
       <c r="BI194" s="3"/>
       <c r="BJ194" s="3"/>
-    </row>
-    <row r="195" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK194" s="3"/>
+      <c r="BL194" s="3"/>
+      <c r="BM194" s="3"/>
+      <c r="BN194" s="3"/>
+    </row>
+    <row r="195" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13712,8 +14504,12 @@
       <c r="BH195" s="3"/>
       <c r="BI195" s="3"/>
       <c r="BJ195" s="3"/>
-    </row>
-    <row r="196" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK195" s="3"/>
+      <c r="BL195" s="3"/>
+      <c r="BM195" s="3"/>
+      <c r="BN195" s="3"/>
+    </row>
+    <row r="196" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13774,8 +14570,12 @@
       <c r="BH196" s="3"/>
       <c r="BI196" s="3"/>
       <c r="BJ196" s="3"/>
-    </row>
-    <row r="197" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK196" s="3"/>
+      <c r="BL196" s="3"/>
+      <c r="BM196" s="3"/>
+      <c r="BN196" s="3"/>
+    </row>
+    <row r="197" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13836,8 +14636,12 @@
       <c r="BH197" s="3"/>
       <c r="BI197" s="3"/>
       <c r="BJ197" s="3"/>
-    </row>
-    <row r="198" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK197" s="3"/>
+      <c r="BL197" s="3"/>
+      <c r="BM197" s="3"/>
+      <c r="BN197" s="3"/>
+    </row>
+    <row r="198" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13898,8 +14702,12 @@
       <c r="BH198" s="3"/>
       <c r="BI198" s="3"/>
       <c r="BJ198" s="3"/>
-    </row>
-    <row r="199" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK198" s="3"/>
+      <c r="BL198" s="3"/>
+      <c r="BM198" s="3"/>
+      <c r="BN198" s="3"/>
+    </row>
+    <row r="199" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13960,8 +14768,12 @@
       <c r="BH199" s="3"/>
       <c r="BI199" s="3"/>
       <c r="BJ199" s="3"/>
-    </row>
-    <row r="200" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK199" s="3"/>
+      <c r="BL199" s="3"/>
+      <c r="BM199" s="3"/>
+      <c r="BN199" s="3"/>
+    </row>
+    <row r="200" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -14022,8 +14834,12 @@
       <c r="BH200" s="3"/>
       <c r="BI200" s="3"/>
       <c r="BJ200" s="3"/>
-    </row>
-    <row r="201" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK200" s="3"/>
+      <c r="BL200" s="3"/>
+      <c r="BM200" s="3"/>
+      <c r="BN200" s="3"/>
+    </row>
+    <row r="201" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14084,8 +14900,12 @@
       <c r="BH201" s="3"/>
       <c r="BI201" s="3"/>
       <c r="BJ201" s="3"/>
-    </row>
-    <row r="202" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK201" s="3"/>
+      <c r="BL201" s="3"/>
+      <c r="BM201" s="3"/>
+      <c r="BN201" s="3"/>
+    </row>
+    <row r="202" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14146,8 +14966,12 @@
       <c r="BH202" s="3"/>
       <c r="BI202" s="3"/>
       <c r="BJ202" s="3"/>
-    </row>
-    <row r="203" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK202" s="3"/>
+      <c r="BL202" s="3"/>
+      <c r="BM202" s="3"/>
+      <c r="BN202" s="3"/>
+    </row>
+    <row r="203" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -14208,8 +15032,12 @@
       <c r="BH203" s="3"/>
       <c r="BI203" s="3"/>
       <c r="BJ203" s="3"/>
-    </row>
-    <row r="204" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK203" s="3"/>
+      <c r="BL203" s="3"/>
+      <c r="BM203" s="3"/>
+      <c r="BN203" s="3"/>
+    </row>
+    <row r="204" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14270,8 +15098,12 @@
       <c r="BH204" s="3"/>
       <c r="BI204" s="3"/>
       <c r="BJ204" s="3"/>
-    </row>
-    <row r="205" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK204" s="3"/>
+      <c r="BL204" s="3"/>
+      <c r="BM204" s="3"/>
+      <c r="BN204" s="3"/>
+    </row>
+    <row r="205" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14332,8 +15164,12 @@
       <c r="BH205" s="3"/>
       <c r="BI205" s="3"/>
       <c r="BJ205" s="3"/>
-    </row>
-    <row r="206" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK205" s="3"/>
+      <c r="BL205" s="3"/>
+      <c r="BM205" s="3"/>
+      <c r="BN205" s="3"/>
+    </row>
+    <row r="206" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -14394,8 +15230,12 @@
       <c r="BH206" s="3"/>
       <c r="BI206" s="3"/>
       <c r="BJ206" s="3"/>
-    </row>
-    <row r="207" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK206" s="3"/>
+      <c r="BL206" s="3"/>
+      <c r="BM206" s="3"/>
+      <c r="BN206" s="3"/>
+    </row>
+    <row r="207" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -14456,8 +15296,12 @@
       <c r="BH207" s="3"/>
       <c r="BI207" s="3"/>
       <c r="BJ207" s="3"/>
-    </row>
-    <row r="208" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK207" s="3"/>
+      <c r="BL207" s="3"/>
+      <c r="BM207" s="3"/>
+      <c r="BN207" s="3"/>
+    </row>
+    <row r="208" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -14518,8 +15362,12 @@
       <c r="BH208" s="3"/>
       <c r="BI208" s="3"/>
       <c r="BJ208" s="3"/>
-    </row>
-    <row r="209" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK208" s="3"/>
+      <c r="BL208" s="3"/>
+      <c r="BM208" s="3"/>
+      <c r="BN208" s="3"/>
+    </row>
+    <row r="209" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -14580,8 +15428,12 @@
       <c r="BH209" s="3"/>
       <c r="BI209" s="3"/>
       <c r="BJ209" s="3"/>
-    </row>
-    <row r="210" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK209" s="3"/>
+      <c r="BL209" s="3"/>
+      <c r="BM209" s="3"/>
+      <c r="BN209" s="3"/>
+    </row>
+    <row r="210" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -14642,8 +15494,12 @@
       <c r="BH210" s="3"/>
       <c r="BI210" s="3"/>
       <c r="BJ210" s="3"/>
-    </row>
-    <row r="211" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK210" s="3"/>
+      <c r="BL210" s="3"/>
+      <c r="BM210" s="3"/>
+      <c r="BN210" s="3"/>
+    </row>
+    <row r="211" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -14704,8 +15560,12 @@
       <c r="BH211" s="3"/>
       <c r="BI211" s="3"/>
       <c r="BJ211" s="3"/>
-    </row>
-    <row r="212" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK211" s="3"/>
+      <c r="BL211" s="3"/>
+      <c r="BM211" s="3"/>
+      <c r="BN211" s="3"/>
+    </row>
+    <row r="212" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14766,8 +15626,12 @@
       <c r="BH212" s="3"/>
       <c r="BI212" s="3"/>
       <c r="BJ212" s="3"/>
-    </row>
-    <row r="213" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK212" s="3"/>
+      <c r="BL212" s="3"/>
+      <c r="BM212" s="3"/>
+      <c r="BN212" s="3"/>
+    </row>
+    <row r="213" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14828,8 +15692,12 @@
       <c r="BH213" s="3"/>
       <c r="BI213" s="3"/>
       <c r="BJ213" s="3"/>
-    </row>
-    <row r="214" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK213" s="3"/>
+      <c r="BL213" s="3"/>
+      <c r="BM213" s="3"/>
+      <c r="BN213" s="3"/>
+    </row>
+    <row r="214" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14890,8 +15758,12 @@
       <c r="BH214" s="3"/>
       <c r="BI214" s="3"/>
       <c r="BJ214" s="3"/>
-    </row>
-    <row r="215" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK214" s="3"/>
+      <c r="BL214" s="3"/>
+      <c r="BM214" s="3"/>
+      <c r="BN214" s="3"/>
+    </row>
+    <row r="215" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14952,8 +15824,12 @@
       <c r="BH215" s="3"/>
       <c r="BI215" s="3"/>
       <c r="BJ215" s="3"/>
-    </row>
-    <row r="216" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK215" s="3"/>
+      <c r="BL215" s="3"/>
+      <c r="BM215" s="3"/>
+      <c r="BN215" s="3"/>
+    </row>
+    <row r="216" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -15014,8 +15890,12 @@
       <c r="BH216" s="3"/>
       <c r="BI216" s="3"/>
       <c r="BJ216" s="3"/>
-    </row>
-    <row r="217" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK216" s="3"/>
+      <c r="BL216" s="3"/>
+      <c r="BM216" s="3"/>
+      <c r="BN216" s="3"/>
+    </row>
+    <row r="217" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -15076,8 +15956,12 @@
       <c r="BH217" s="3"/>
       <c r="BI217" s="3"/>
       <c r="BJ217" s="3"/>
-    </row>
-    <row r="218" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK217" s="3"/>
+      <c r="BL217" s="3"/>
+      <c r="BM217" s="3"/>
+      <c r="BN217" s="3"/>
+    </row>
+    <row r="218" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -15138,8 +16022,12 @@
       <c r="BH218" s="3"/>
       <c r="BI218" s="3"/>
       <c r="BJ218" s="3"/>
-    </row>
-    <row r="219" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK218" s="3"/>
+      <c r="BL218" s="3"/>
+      <c r="BM218" s="3"/>
+      <c r="BN218" s="3"/>
+    </row>
+    <row r="219" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -15200,8 +16088,12 @@
       <c r="BH219" s="3"/>
       <c r="BI219" s="3"/>
       <c r="BJ219" s="3"/>
-    </row>
-    <row r="220" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK219" s="3"/>
+      <c r="BL219" s="3"/>
+      <c r="BM219" s="3"/>
+      <c r="BN219" s="3"/>
+    </row>
+    <row r="220" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -15262,8 +16154,12 @@
       <c r="BH220" s="3"/>
       <c r="BI220" s="3"/>
       <c r="BJ220" s="3"/>
-    </row>
-    <row r="221" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK220" s="3"/>
+      <c r="BL220" s="3"/>
+      <c r="BM220" s="3"/>
+      <c r="BN220" s="3"/>
+    </row>
+    <row r="221" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -15324,8 +16220,12 @@
       <c r="BH221" s="3"/>
       <c r="BI221" s="3"/>
       <c r="BJ221" s="3"/>
-    </row>
-    <row r="222" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK221" s="3"/>
+      <c r="BL221" s="3"/>
+      <c r="BM221" s="3"/>
+      <c r="BN221" s="3"/>
+    </row>
+    <row r="222" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -15386,8 +16286,12 @@
       <c r="BH222" s="3"/>
       <c r="BI222" s="3"/>
       <c r="BJ222" s="3"/>
-    </row>
-    <row r="223" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK222" s="3"/>
+      <c r="BL222" s="3"/>
+      <c r="BM222" s="3"/>
+      <c r="BN222" s="3"/>
+    </row>
+    <row r="223" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -15448,8 +16352,12 @@
       <c r="BH223" s="3"/>
       <c r="BI223" s="3"/>
       <c r="BJ223" s="3"/>
-    </row>
-    <row r="224" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK223" s="3"/>
+      <c r="BL223" s="3"/>
+      <c r="BM223" s="3"/>
+      <c r="BN223" s="3"/>
+    </row>
+    <row r="224" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -15510,8 +16418,12 @@
       <c r="BH224" s="3"/>
       <c r="BI224" s="3"/>
       <c r="BJ224" s="3"/>
-    </row>
-    <row r="225" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK224" s="3"/>
+      <c r="BL224" s="3"/>
+      <c r="BM224" s="3"/>
+      <c r="BN224" s="3"/>
+    </row>
+    <row r="225" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -15572,8 +16484,12 @@
       <c r="BH225" s="3"/>
       <c r="BI225" s="3"/>
       <c r="BJ225" s="3"/>
-    </row>
-    <row r="226" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK225" s="3"/>
+      <c r="BL225" s="3"/>
+      <c r="BM225" s="3"/>
+      <c r="BN225" s="3"/>
+    </row>
+    <row r="226" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -15634,8 +16550,12 @@
       <c r="BH226" s="3"/>
       <c r="BI226" s="3"/>
       <c r="BJ226" s="3"/>
-    </row>
-    <row r="227" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK226" s="3"/>
+      <c r="BL226" s="3"/>
+      <c r="BM226" s="3"/>
+      <c r="BN226" s="3"/>
+    </row>
+    <row r="227" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -15696,8 +16616,12 @@
       <c r="BH227" s="3"/>
       <c r="BI227" s="3"/>
       <c r="BJ227" s="3"/>
-    </row>
-    <row r="228" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK227" s="3"/>
+      <c r="BL227" s="3"/>
+      <c r="BM227" s="3"/>
+      <c r="BN227" s="3"/>
+    </row>
+    <row r="228" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15758,8 +16682,12 @@
       <c r="BH228" s="3"/>
       <c r="BI228" s="3"/>
       <c r="BJ228" s="3"/>
-    </row>
-    <row r="229" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK228" s="3"/>
+      <c r="BL228" s="3"/>
+      <c r="BM228" s="3"/>
+      <c r="BN228" s="3"/>
+    </row>
+    <row r="229" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15820,8 +16748,12 @@
       <c r="BH229" s="3"/>
       <c r="BI229" s="3"/>
       <c r="BJ229" s="3"/>
-    </row>
-    <row r="230" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK229" s="3"/>
+      <c r="BL229" s="3"/>
+      <c r="BM229" s="3"/>
+      <c r="BN229" s="3"/>
+    </row>
+    <row r="230" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15882,8 +16814,12 @@
       <c r="BH230" s="3"/>
       <c r="BI230" s="3"/>
       <c r="BJ230" s="3"/>
-    </row>
-    <row r="231" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK230" s="3"/>
+      <c r="BL230" s="3"/>
+      <c r="BM230" s="3"/>
+      <c r="BN230" s="3"/>
+    </row>
+    <row r="231" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15944,8 +16880,12 @@
       <c r="BH231" s="3"/>
       <c r="BI231" s="3"/>
       <c r="BJ231" s="3"/>
-    </row>
-    <row r="232" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK231" s="3"/>
+      <c r="BL231" s="3"/>
+      <c r="BM231" s="3"/>
+      <c r="BN231" s="3"/>
+    </row>
+    <row r="232" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -16006,8 +16946,12 @@
       <c r="BH232" s="3"/>
       <c r="BI232" s="3"/>
       <c r="BJ232" s="3"/>
-    </row>
-    <row r="233" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK232" s="3"/>
+      <c r="BL232" s="3"/>
+      <c r="BM232" s="3"/>
+      <c r="BN232" s="3"/>
+    </row>
+    <row r="233" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -16068,8 +17012,12 @@
       <c r="BH233" s="3"/>
       <c r="BI233" s="3"/>
       <c r="BJ233" s="3"/>
-    </row>
-    <row r="234" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK233" s="3"/>
+      <c r="BL233" s="3"/>
+      <c r="BM233" s="3"/>
+      <c r="BN233" s="3"/>
+    </row>
+    <row r="234" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -16130,8 +17078,12 @@
       <c r="BH234" s="3"/>
       <c r="BI234" s="3"/>
       <c r="BJ234" s="3"/>
-    </row>
-    <row r="235" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK234" s="3"/>
+      <c r="BL234" s="3"/>
+      <c r="BM234" s="3"/>
+      <c r="BN234" s="3"/>
+    </row>
+    <row r="235" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -16192,8 +17144,12 @@
       <c r="BH235" s="3"/>
       <c r="BI235" s="3"/>
       <c r="BJ235" s="3"/>
-    </row>
-    <row r="236" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK235" s="3"/>
+      <c r="BL235" s="3"/>
+      <c r="BM235" s="3"/>
+      <c r="BN235" s="3"/>
+    </row>
+    <row r="236" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -16254,8 +17210,12 @@
       <c r="BH236" s="3"/>
       <c r="BI236" s="3"/>
       <c r="BJ236" s="3"/>
-    </row>
-    <row r="237" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK236" s="3"/>
+      <c r="BL236" s="3"/>
+      <c r="BM236" s="3"/>
+      <c r="BN236" s="3"/>
+    </row>
+    <row r="237" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -16316,8 +17276,12 @@
       <c r="BH237" s="3"/>
       <c r="BI237" s="3"/>
       <c r="BJ237" s="3"/>
-    </row>
-    <row r="238" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK237" s="3"/>
+      <c r="BL237" s="3"/>
+      <c r="BM237" s="3"/>
+      <c r="BN237" s="3"/>
+    </row>
+    <row r="238" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -16378,8 +17342,12 @@
       <c r="BH238" s="3"/>
       <c r="BI238" s="3"/>
       <c r="BJ238" s="3"/>
-    </row>
-    <row r="239" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK238" s="3"/>
+      <c r="BL238" s="3"/>
+      <c r="BM238" s="3"/>
+      <c r="BN238" s="3"/>
+    </row>
+    <row r="239" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -16440,8 +17408,12 @@
       <c r="BH239" s="3"/>
       <c r="BI239" s="3"/>
       <c r="BJ239" s="3"/>
-    </row>
-    <row r="240" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK239" s="3"/>
+      <c r="BL239" s="3"/>
+      <c r="BM239" s="3"/>
+      <c r="BN239" s="3"/>
+    </row>
+    <row r="240" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -16502,8 +17474,12 @@
       <c r="BH240" s="3"/>
       <c r="BI240" s="3"/>
       <c r="BJ240" s="3"/>
-    </row>
-    <row r="241" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK240" s="3"/>
+      <c r="BL240" s="3"/>
+      <c r="BM240" s="3"/>
+      <c r="BN240" s="3"/>
+    </row>
+    <row r="241" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -16564,8 +17540,12 @@
       <c r="BH241" s="3"/>
       <c r="BI241" s="3"/>
       <c r="BJ241" s="3"/>
-    </row>
-    <row r="242" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK241" s="3"/>
+      <c r="BL241" s="3"/>
+      <c r="BM241" s="3"/>
+      <c r="BN241" s="3"/>
+    </row>
+    <row r="242" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -16626,8 +17606,12 @@
       <c r="BH242" s="3"/>
       <c r="BI242" s="3"/>
       <c r="BJ242" s="3"/>
-    </row>
-    <row r="243" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK242" s="3"/>
+      <c r="BL242" s="3"/>
+      <c r="BM242" s="3"/>
+      <c r="BN242" s="3"/>
+    </row>
+    <row r="243" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -16688,8 +17672,12 @@
       <c r="BH243" s="3"/>
       <c r="BI243" s="3"/>
       <c r="BJ243" s="3"/>
-    </row>
-    <row r="244" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK243" s="3"/>
+      <c r="BL243" s="3"/>
+      <c r="BM243" s="3"/>
+      <c r="BN243" s="3"/>
+    </row>
+    <row r="244" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -16750,8 +17738,12 @@
       <c r="BH244" s="3"/>
       <c r="BI244" s="3"/>
       <c r="BJ244" s="3"/>
-    </row>
-    <row r="245" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK244" s="3"/>
+      <c r="BL244" s="3"/>
+      <c r="BM244" s="3"/>
+      <c r="BN244" s="3"/>
+    </row>
+    <row r="245" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -16812,8 +17804,12 @@
       <c r="BH245" s="3"/>
       <c r="BI245" s="3"/>
       <c r="BJ245" s="3"/>
-    </row>
-    <row r="246" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK245" s="3"/>
+      <c r="BL245" s="3"/>
+      <c r="BM245" s="3"/>
+      <c r="BN245" s="3"/>
+    </row>
+    <row r="246" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -16874,8 +17870,12 @@
       <c r="BH246" s="3"/>
       <c r="BI246" s="3"/>
       <c r="BJ246" s="3"/>
-    </row>
-    <row r="247" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK246" s="3"/>
+      <c r="BL246" s="3"/>
+      <c r="BM246" s="3"/>
+      <c r="BN246" s="3"/>
+    </row>
+    <row r="247" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -16936,8 +17936,12 @@
       <c r="BH247" s="3"/>
       <c r="BI247" s="3"/>
       <c r="BJ247" s="3"/>
-    </row>
-    <row r="248" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK247" s="3"/>
+      <c r="BL247" s="3"/>
+      <c r="BM247" s="3"/>
+      <c r="BN247" s="3"/>
+    </row>
+    <row r="248" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -16998,8 +18002,12 @@
       <c r="BH248" s="3"/>
       <c r="BI248" s="3"/>
       <c r="BJ248" s="3"/>
-    </row>
-    <row r="249" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK248" s="3"/>
+      <c r="BL248" s="3"/>
+      <c r="BM248" s="3"/>
+      <c r="BN248" s="3"/>
+    </row>
+    <row r="249" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -17060,8 +18068,12 @@
       <c r="BH249" s="3"/>
       <c r="BI249" s="3"/>
       <c r="BJ249" s="3"/>
-    </row>
-    <row r="250" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK249" s="3"/>
+      <c r="BL249" s="3"/>
+      <c r="BM249" s="3"/>
+      <c r="BN249" s="3"/>
+    </row>
+    <row r="250" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -17122,8 +18134,12 @@
       <c r="BH250" s="3"/>
       <c r="BI250" s="3"/>
       <c r="BJ250" s="3"/>
-    </row>
-    <row r="251" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK250" s="3"/>
+      <c r="BL250" s="3"/>
+      <c r="BM250" s="3"/>
+      <c r="BN250" s="3"/>
+    </row>
+    <row r="251" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -17184,8 +18200,12 @@
       <c r="BH251" s="3"/>
       <c r="BI251" s="3"/>
       <c r="BJ251" s="3"/>
-    </row>
-    <row r="252" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK251" s="3"/>
+      <c r="BL251" s="3"/>
+      <c r="BM251" s="3"/>
+      <c r="BN251" s="3"/>
+    </row>
+    <row r="252" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -17246,8 +18266,12 @@
       <c r="BH252" s="3"/>
       <c r="BI252" s="3"/>
       <c r="BJ252" s="3"/>
-    </row>
-    <row r="253" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK252" s="3"/>
+      <c r="BL252" s="3"/>
+      <c r="BM252" s="3"/>
+      <c r="BN252" s="3"/>
+    </row>
+    <row r="253" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -17308,8 +18332,12 @@
       <c r="BH253" s="3"/>
       <c r="BI253" s="3"/>
       <c r="BJ253" s="3"/>
-    </row>
-    <row r="254" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK253" s="3"/>
+      <c r="BL253" s="3"/>
+      <c r="BM253" s="3"/>
+      <c r="BN253" s="3"/>
+    </row>
+    <row r="254" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -17370,8 +18398,12 @@
       <c r="BH254" s="3"/>
       <c r="BI254" s="3"/>
       <c r="BJ254" s="3"/>
-    </row>
-    <row r="255" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK254" s="3"/>
+      <c r="BL254" s="3"/>
+      <c r="BM254" s="3"/>
+      <c r="BN254" s="3"/>
+    </row>
+    <row r="255" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -17432,8 +18464,12 @@
       <c r="BH255" s="3"/>
       <c r="BI255" s="3"/>
       <c r="BJ255" s="3"/>
-    </row>
-    <row r="256" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK255" s="3"/>
+      <c r="BL255" s="3"/>
+      <c r="BM255" s="3"/>
+      <c r="BN255" s="3"/>
+    </row>
+    <row r="256" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -17494,8 +18530,12 @@
       <c r="BH256" s="3"/>
       <c r="BI256" s="3"/>
       <c r="BJ256" s="3"/>
-    </row>
-    <row r="257" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK256" s="3"/>
+      <c r="BL256" s="3"/>
+      <c r="BM256" s="3"/>
+      <c r="BN256" s="3"/>
+    </row>
+    <row r="257" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -17556,8 +18596,12 @@
       <c r="BH257" s="3"/>
       <c r="BI257" s="3"/>
       <c r="BJ257" s="3"/>
-    </row>
-    <row r="258" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK257" s="3"/>
+      <c r="BL257" s="3"/>
+      <c r="BM257" s="3"/>
+      <c r="BN257" s="3"/>
+    </row>
+    <row r="258" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -17618,6 +18662,10 @@
       <c r="BH258" s="3"/>
       <c r="BI258" s="3"/>
       <c r="BJ258" s="3"/>
+      <c r="BK258" s="3"/>
+      <c r="BL258" s="3"/>
+      <c r="BM258" s="3"/>
+      <c r="BN258" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/JD.L.xlsx
+++ b/JD.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC6780-D0DF-4ACA-8929-A0B7444331DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2053AD-E4E5-43C1-A296-94DEFD4203AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A861BF2C-D46A-4677-B024-DD180144423A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A861BF2C-D46A-4677-B024-DD180144423A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -286,13 +286,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -349,22 +355,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -703,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F36C36-D83F-4A49-8F05-A33A0CCD3C0A}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="3">
-        <v>0.86919999999999997</v>
+        <v>0.93779999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,10 +743,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4">
-        <v>5158</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>5127</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -749,7 +758,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>4483.3335999999999</v>
+        <v>4808.1005999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -760,10 +769,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="4">
-        <v>731</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>69</v>
+        <v>531</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -771,11 +780,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="4">
-        <f>591+88</f>
-        <v>679</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>69</v>
+        <f>122+534</f>
+        <v>656</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -784,7 +793,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>4431.3335999999999</v>
+        <v>4933.1005999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -810,10 +819,10 @@
   <dimension ref="A1:BN258"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,7 +910,9 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>421</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -978,7 +989,9 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>673</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1055,7 +1068,9 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>391</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1132,7 +1147,10 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <f>220+256</f>
+        <v>476</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1209,7 +1227,9 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>107</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1286,7 +1306,9 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>2204</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1363,7 +1385,9 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>600</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1440,9 +1464,18 @@
         <f>+SUM(I3:I9)</f>
         <v>4506</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="7">
+        <f t="shared" ref="J10:L10" si="0">+SUM(J3:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>4872</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1450,11 +1483,11 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7">
-        <f t="shared" ref="S10:T10" si="0">+SUM(S3:S9)</f>
+        <f t="shared" ref="S10:T10" si="1">+SUM(S3:S9)</f>
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3317</v>
       </c>
       <c r="U10" s="7">
@@ -2502,27 +2535,27 @@
         <v>34</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" ref="C24:H24" si="1">+SUM(C17:C19)</f>
+        <f t="shared" ref="C24:H24" si="2">+SUM(C17:C19)</f>
         <v>0</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4783.9000000000005</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="7">
@@ -2530,7 +2563,7 @@
         <v>5032.2</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" ref="J24" si="2">+SUM(J17:J19)</f>
+        <f t="shared" ref="J24" si="3">+SUM(J17:J19)</f>
         <v>0</v>
       </c>
       <c r="K24" s="7"/>
@@ -2676,27 +2709,27 @@
         <v>62</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26:H26" si="3">+C24-C25</f>
+        <f t="shared" ref="C26:H26" si="4">+C24-C25</f>
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2317.4000000000005</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="4">
@@ -2704,7 +2737,7 @@
         <v>2428</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" ref="J26" si="4">+J24-J25</f>
+        <f t="shared" ref="J26" si="5">+J24-J25</f>
         <v>0</v>
       </c>
       <c r="K26" s="4"/>
@@ -2715,15 +2748,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4">
-        <f t="shared" ref="R26:T26" si="5">+R24-R25</f>
+        <f t="shared" ref="R26:T26" si="6">+R24-R25</f>
         <v>0</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5048</v>
       </c>
       <c r="U26" s="4">
@@ -3089,27 +3122,27 @@
         <v>40</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31" si="6">+C26-C27-C28+C29+C30</f>
+        <f t="shared" ref="C31" si="7">+C26-C27-C28+C29+C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31" si="7">+D26-D27-D28+D29+D30</f>
+        <f t="shared" ref="D31" si="8">+D26-D27-D28+D29+D30</f>
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:H31" si="8">+E26-E27-E28+E29+E30</f>
+        <f t="shared" ref="E31:H31" si="9">+E26-E27-E28+E29+E30</f>
         <v>374.80000000000058</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I31" s="4">
@@ -3117,7 +3150,7 @@
         <v>292.20000000000005</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" ref="J31:U31" si="9">+J26-J27-J28+J29+J30</f>
+        <f t="shared" ref="J31:U31" si="10">+J26-J27-J28+J29+J30</f>
         <v>0</v>
       </c>
       <c r="K31" s="4"/>
@@ -3126,27 +3159,27 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>927</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>903</v>
       </c>
       <c r="V31" s="4"/>
@@ -3355,27 +3388,27 @@
         <v>43</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" ref="C34:H34" si="10">+C31+C32-C33</f>
+        <f t="shared" ref="C34:H34" si="11">+C31+C32-C33</f>
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>353.70000000000061</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I34" s="4">
@@ -3383,7 +3416,7 @@
         <v>126.30000000000007</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" ref="J34:U34" si="11">+J31+J32-J33</f>
+        <f t="shared" ref="J34:U34" si="12">+J31+J32-J33</f>
         <v>0</v>
       </c>
       <c r="K34" s="4"/>
@@ -3392,27 +3425,27 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>811</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>715</v>
       </c>
       <c r="V34" s="4"/>
@@ -3544,23 +3577,23 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:H36" si="12">+D34-D35</f>
+        <f t="shared" ref="D36:H36" si="13">+D34-D35</f>
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>257.50000000000063</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I36" s="4">
@@ -3568,7 +3601,7 @@
         <v>52.200000000000074</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" ref="J36" si="13">+J34-J35</f>
+        <f t="shared" ref="J36" si="14">+J34-J35</f>
         <v>0</v>
       </c>
       <c r="K36" s="4"/>
@@ -3579,15 +3612,15 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4">
-        <f t="shared" ref="R36:T36" si="14">+R34-R35</f>
+        <f t="shared" ref="R36:T36" si="15">+R34-R35</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>605</v>
       </c>
       <c r="U36" s="4">
@@ -3732,19 +3765,19 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4">
-        <f t="shared" ref="Q38:T38" si="15">+Q36-Q37</f>
+        <f t="shared" ref="Q38:T38" si="16">+Q36-Q37</f>
         <v>0</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>539</v>
       </c>
       <c r="U38" s="4">
@@ -3881,23 +3914,23 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="3" t="e">
-        <f t="shared" ref="P40:T40" si="16">+P38/P41</f>
+        <f t="shared" ref="P40:T40" si="17">+P38/P41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="3" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="3" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="3" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10449786739046142</v>
       </c>
       <c r="U40" s="3">
@@ -3959,11 +3992,15 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>5158</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>5127</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -4113,11 +4150,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="8" t="e">
-        <f t="shared" ref="S43:T43" si="17">+S10/R10-1</f>
+        <f t="shared" ref="S43:T43" si="18">+S10/R10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T43" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="8">
@@ -4194,15 +4231,15 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="8" t="e">
-        <f t="shared" ref="S44:U54" si="18">+S13/R13-1</f>
+        <f t="shared" ref="S44:U54" si="19">+S13/R13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T44" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-8.6634368766030256E-2</v>
       </c>
       <c r="V44" s="4"/>
@@ -4262,7 +4299,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="8">
-        <f t="shared" ref="I45:I55" si="19">+I14/E14-1</f>
+        <f t="shared" ref="I45:I55" si="20">+I14/E14-1</f>
         <v>4.3927125506072917E-2</v>
       </c>
       <c r="J45" s="4"/>
@@ -4275,15 +4312,15 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T45" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13445378151260501</v>
       </c>
       <c r="V45" s="4"/>
@@ -4343,7 +4380,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15351223362273081</v>
       </c>
       <c r="J46" s="4"/>
@@ -4356,15 +4393,15 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T46" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.24253075571177507</v>
       </c>
       <c r="V46" s="4"/>
@@ -4424,7 +4461,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-8.9984350547730796E-2</v>
       </c>
       <c r="J47" s="4"/>
@@ -4437,15 +4474,15 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T47" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U47" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4.5714285714285707E-2</v>
       </c>
       <c r="V47" s="4"/>
@@ -4505,7 +4542,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.2830293749129877E-2</v>
       </c>
       <c r="J48" s="4"/>
@@ -4518,15 +4555,15 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T48" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U48" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14125926856855608</v>
       </c>
       <c r="V48" s="4"/>
@@ -4586,7 +4623,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.4911287278218111E-2</v>
       </c>
       <c r="J49" s="4"/>
@@ -4599,15 +4636,15 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T49" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U49" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4.2127659574468068E-2</v>
       </c>
       <c r="V49" s="4"/>
@@ -4667,7 +4704,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.52183734939759041</v>
       </c>
       <c r="J50" s="4"/>
@@ -4680,15 +4717,15 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T50" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U50" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.46382978723404256</v>
       </c>
       <c r="V50" s="4"/>
@@ -4748,7 +4785,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.6468530194248947E-2</v>
       </c>
       <c r="J51" s="4"/>
@@ -4761,15 +4798,15 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T51" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U51" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15185810810810807</v>
       </c>
       <c r="V51" s="4"/>
@@ -4829,7 +4866,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.4486646087772446E-3</v>
       </c>
       <c r="J52" s="4"/>
@@ -4842,15 +4879,15 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T52" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U52" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="V52" s="4"/>
@@ -4910,7 +4947,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.1040481766476984E-2</v>
       </c>
       <c r="J53" s="4"/>
@@ -4923,15 +4960,15 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T53" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U53" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.7761194029850795E-2</v>
       </c>
       <c r="V53" s="4"/>
@@ -4991,7 +5028,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-9.6452770027899648E-2</v>
       </c>
       <c r="J54" s="4"/>
@@ -5004,15 +5041,15 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T54" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U54" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.28860294117647056</v>
       </c>
       <c r="V54" s="4"/>
@@ -5072,7 +5109,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.1903258847383782E-2</v>
       </c>
       <c r="J55" s="7"/>
@@ -5083,19 +5120,19 @@
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="9" t="e">
-        <f t="shared" ref="Q55:T55" si="20">+Q24/P24-1</f>
+        <f t="shared" ref="Q55:T55" si="21">+Q24/P24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R55" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S55" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T55" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U55" s="9">
@@ -5153,27 +5190,27 @@
         <v>59</v>
       </c>
       <c r="C56" s="8" t="e">
-        <f t="shared" ref="C56:H56" si="21">+C26/C24</f>
+        <f t="shared" ref="C56:H56" si="22">+C26/C24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D56" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.48441648027759782</v>
       </c>
       <c r="F56" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="8">
@@ -5181,7 +5218,7 @@
         <v>0.48249274671118003</v>
       </c>
       <c r="J56" s="8" t="e">
-        <f t="shared" ref="J56" si="22">+J26/J24</f>
+        <f t="shared" ref="J56" si="23">+J26/J24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="8"/>
@@ -5190,27 +5227,27 @@
       <c r="N56" s="8"/>
       <c r="O56" s="4"/>
       <c r="P56" s="8" t="e">
-        <f t="shared" ref="P56:U56" si="23">+P26/P24</f>
+        <f t="shared" ref="P56:U56" si="24">+P26/P24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="8" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R56" s="8" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S56" s="8" t="e">
-        <f t="shared" ref="S56:T56" si="24">+S26/S24</f>
+        <f t="shared" ref="S56:T56" si="25">+S26/S24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T56" s="8">
+        <f t="shared" si="25"/>
+        <v>0.47884651868715616</v>
+      </c>
+      <c r="U56" s="8">
         <f t="shared" si="24"/>
-        <v>0.47884651868715616</v>
-      </c>
-      <c r="U56" s="8">
-        <f t="shared" si="23"/>
         <v>0.47678477919357654</v>
       </c>
       <c r="V56" s="4"/>
@@ -5264,27 +5301,27 @@
         <v>60</v>
       </c>
       <c r="C57" s="8" t="e">
-        <f t="shared" ref="C57:H57" si="25">+C31/C24</f>
+        <f t="shared" ref="C57:H57" si="26">+C31/C24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D57" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.8346119275068571E-2</v>
       </c>
       <c r="F57" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G57" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H57" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="8">
@@ -5292,7 +5329,7 @@
         <v>5.8066054608322412E-2</v>
       </c>
       <c r="J57" s="8" t="e">
-        <f t="shared" ref="J57" si="26">+J31/J24</f>
+        <f t="shared" ref="J57" si="27">+J31/J24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="8"/>
@@ -5301,27 +5338,27 @@
       <c r="N57" s="8"/>
       <c r="O57" s="4"/>
       <c r="P57" s="8" t="e">
-        <f t="shared" ref="P57:U57" si="27">+P31/P24</f>
+        <f t="shared" ref="P57:U57" si="28">+P31/P24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="8" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R57" s="8" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S57" s="8" t="e">
-        <f t="shared" ref="S57:T57" si="28">+S31/S24</f>
+        <f t="shared" ref="S57:T57" si="29">+S31/S24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T57" s="8">
+        <f t="shared" si="29"/>
+        <v>8.7933978372225385E-2</v>
+      </c>
+      <c r="U57" s="8">
         <f t="shared" si="28"/>
-        <v>8.7933978372225385E-2</v>
-      </c>
-      <c r="U57" s="8">
-        <f t="shared" si="27"/>
         <v>7.880956536917437E-2</v>
       </c>
       <c r="V57" s="4"/>
@@ -5375,27 +5412,27 @@
         <v>61</v>
       </c>
       <c r="C58" s="8" t="e">
-        <f t="shared" ref="C58:H58" si="29">+C35/C34</f>
+        <f t="shared" ref="C58:H58" si="30">+C35/C34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D58" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27198190556969137</v>
       </c>
       <c r="F58" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G58" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="8">
@@ -5403,7 +5440,7 @@
         <v>0.58669833729216114</v>
       </c>
       <c r="J58" s="8" t="e">
-        <f t="shared" ref="J58" si="30">+J35/J34</f>
+        <f t="shared" ref="J58" si="31">+J35/J34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="8"/>
@@ -5412,27 +5449,27 @@
       <c r="N58" s="8"/>
       <c r="O58" s="4"/>
       <c r="P58" s="8" t="e">
-        <f t="shared" ref="P58:U58" si="31">+P35/P34</f>
+        <f t="shared" ref="P58:U58" si="32">+P35/P34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="8" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R58" s="8" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S58" s="8" t="e">
-        <f t="shared" ref="S58:T58" si="32">+S35/S34</f>
+        <f t="shared" ref="S58:T58" si="33">+S35/S34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T58" s="8">
+        <f t="shared" si="33"/>
+        <v>0.25400739827373614</v>
+      </c>
+      <c r="U58" s="8">
         <f t="shared" si="32"/>
-        <v>0.25400739827373614</v>
-      </c>
-      <c r="U58" s="8">
-        <f t="shared" si="31"/>
         <v>0.24475524475524477</v>
       </c>
       <c r="V58" s="4"/>
